--- a/BackTest/2019-10-21 BackTest PST.xlsx
+++ b/BackTest/2019-10-21 BackTest PST.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>18.59999999999999</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-1.734104046242758</v>
+      </c>
       <c r="L12" t="n">
         <v>93.21000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>19.69999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>12.58278145695368</v>
+      </c>
       <c r="L13" t="n">
         <v>93.07000000000002</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>21</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-14.4927536231884</v>
+      </c>
       <c r="L14" t="n">
         <v>93.13000000000002</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>23</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>18.79699248120299</v>
+      </c>
       <c r="L15" t="n">
         <v>93.13000000000002</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>23.59999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-11.11111111111114</v>
+      </c>
       <c r="L16" t="n">
         <v>93.32000000000002</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>24.8</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>93.32000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>25</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>27.65957446808503</v>
+      </c>
       <c r="L18" t="n">
         <v>93.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>25.2</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-5.882352941176544</v>
+      </c>
       <c r="L19" t="n">
         <v>93.53999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>25.40000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-1.449275362318757</v>
+      </c>
       <c r="L20" t="n">
         <v>93.52000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>25.5</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1.449275362318757</v>
+      </c>
       <c r="L21" t="n">
         <v>93.52</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>25.89999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>12.90322580645156</v>
+      </c>
       <c r="L22" t="n">
         <v>93.48999999999998</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>25.89999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>-2.43902439024388</v>
+        <v>42.8571428571431</v>
       </c>
       <c r="L23" t="n">
         <v>93.56999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>12.14953271028035</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>93.77</v>
@@ -1515,7 +1537,7 @@
         <v>26.19999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.052631578947309</v>
+        <v>15.38461538461564</v>
       </c>
       <c r="L25" t="n">
         <v>93.74999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>26.69999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>10.58823529411771</v>
+        <v>-68.4210526315791</v>
       </c>
       <c r="L26" t="n">
         <v>93.73999999999998</v>
@@ -1613,7 +1635,7 @@
         <v>26.69999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.352517985611495</v>
+        <v>-64.70588235294127</v>
       </c>
       <c r="L27" t="n">
         <v>93.60999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>27.09999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>-6.293706293706341</v>
+        <v>-26.31578947368453</v>
       </c>
       <c r="L28" t="n">
         <v>93.53999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>27.99999999999997</v>
       </c>
       <c r="K29" t="n">
-        <v>8.064516129032274</v>
+        <v>-61.53846153846213</v>
       </c>
       <c r="L29" t="n">
         <v>93.40000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K30" t="n">
-        <v>-7.547169811320742</v>
+        <v>-19.99999999999984</v>
       </c>
       <c r="L30" t="n">
         <v>93.34</v>
@@ -1809,7 +1831,7 @@
         <v>30.29999999999998</v>
       </c>
       <c r="K31" t="n">
-        <v>-16.94915254237291</v>
+        <v>-36.36363636363662</v>
       </c>
       <c r="L31" t="n">
         <v>93.14</v>
@@ -1860,7 +1882,7 @@
         <v>30.59999999999998</v>
       </c>
       <c r="K32" t="n">
-        <v>-18.33333333333338</v>
+        <v>-40.42553191489384</v>
       </c>
       <c r="L32" t="n">
         <v>92.94999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>31.69999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.33333333333338</v>
+        <v>-50.87719298245622</v>
       </c>
       <c r="L33" t="n">
         <v>92.64999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>33.89999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>10.07751937984507</v>
+        <v>-6.493506493506502</v>
       </c>
       <c r="L34" t="n">
         <v>92.57999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>34.99999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>-14.99999999999999</v>
+        <v>-13.25301204819288</v>
       </c>
       <c r="L35" t="n">
         <v>92.41999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>-23.30827067669172</v>
+        <v>-29.41176470588239</v>
       </c>
       <c r="L36" t="n">
         <v>92.11999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>37.69999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>-27.13178294573648</v>
+        <v>-24.52830188679241</v>
       </c>
       <c r="L37" t="n">
         <v>91.89999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>37.99999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>-23.07692307692313</v>
+        <v>-14.00000000000006</v>
       </c>
       <c r="L38" t="n">
         <v>91.66999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>38.59999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.41791044776126</v>
+        <v>-18.75000000000013</v>
       </c>
       <c r="L39" t="n">
         <v>91.59</v>
@@ -2268,7 +2290,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>-23.94366197183109</v>
+        <v>-16.12903225806455</v>
       </c>
       <c r="L40" t="n">
         <v>91.31</v>
@@ -2319,7 +2341,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>-24.82269503546105</v>
+        <v>-13.33333333333339</v>
       </c>
       <c r="L41" t="n">
         <v>91.16</v>
@@ -2370,7 +2392,7 @@
         <v>40.19999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>-17.4825174825175</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L42" t="n">
         <v>91.10000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>41.99999999999997</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.347826086956545</v>
+        <v>1.234567901234499</v>
       </c>
       <c r="L43" t="n">
         <v>91.33000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>43.99999999999997</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.44444444444443</v>
+        <v>-8.888888888888872</v>
       </c>
       <c r="L44" t="n">
         <v>91.14000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>44.29999999999997</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.91712707182324</v>
+        <v>10.81081081081079</v>
       </c>
       <c r="L45" t="n">
         <v>91.03000000000002</v>
@@ -2574,7 +2596,7 @@
         <v>46.29999999999997</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.020408163265322</v>
+        <v>23.25581395348839</v>
       </c>
       <c r="L46" t="n">
         <v>91.31000000000003</v>
@@ -2625,7 +2647,7 @@
         <v>48.89999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>-12.61261261261267</v>
+        <v>-8.256880733945001</v>
       </c>
       <c r="L47" t="n">
         <v>91.25000000000003</v>
@@ -2676,7 +2698,7 @@
         <v>49.79999999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>-10.13215859030836</v>
+        <v>-5.357142857142798</v>
       </c>
       <c r="L48" t="n">
         <v>91.25000000000003</v>
@@ -2727,7 +2749,7 @@
         <v>49.89999999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.849315068493149</v>
+        <v>2.912621359223408</v>
       </c>
       <c r="L49" t="n">
         <v>91.18000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>49.99999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-12.38095238095241</v>
+        <v>1.923076923076947</v>
       </c>
       <c r="L50" t="n">
         <v>91.20000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>49.99999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>-6.598984771573589</v>
+        <v>-4.081632653061278</v>
       </c>
       <c r="L51" t="n">
         <v>91.22</v>
@@ -2880,7 +2902,7 @@
         <v>50.09999999999998</v>
       </c>
       <c r="K52" t="n">
-        <v>-5.641025641025612</v>
+        <v>-28.395061728395</v>
       </c>
       <c r="L52" t="n">
         <v>91.17</v>
@@ -2931,7 +2953,7 @@
         <v>50.09999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-4.918032786885193</v>
       </c>
       <c r="L53" t="n">
         <v>90.94000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>52.29999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>-23.91304347826089</v>
+        <v>-27.49999999999999</v>
       </c>
       <c r="L54" t="n">
         <v>90.69000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>53.59999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>-10.75268817204301</v>
+        <v>-39.72602739726029</v>
       </c>
       <c r="L55" t="n">
         <v>90.59999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>53.59999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.5988023952096317</v>
+        <v>-6.382978723404191</v>
       </c>
       <c r="L56" t="n">
         <v>90.30999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>54.79999999999998</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.28070175438601</v>
+        <v>-48.00000000000011</v>
       </c>
       <c r="L57" t="n">
         <v>90.16</v>
@@ -3186,7 +3208,7 @@
         <v>54.89999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>-13.60946745562127</v>
+        <v>-43.99999999999994</v>
       </c>
       <c r="L58" t="n">
         <v>89.92999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>54.89999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>-17.79141104294471</v>
+        <v>-42.85714285714269</v>
       </c>
       <c r="L59" t="n">
         <v>89.71000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>55.89999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-5.521472392637976</v>
+        <v>-18.64406779661006</v>
       </c>
       <c r="L60" t="n">
         <v>89.60000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>55.89999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>-5.521472392637976</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L61" t="n">
         <v>89.49000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>56.8</v>
       </c>
       <c r="K62" t="n">
-        <v>-14.45783132530122</v>
+        <v>-28.35820895522389</v>
       </c>
       <c r="L62" t="n">
         <v>89.30000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>56.8</v>
       </c>
       <c r="K63" t="n">
-        <v>-28.37837837837835</v>
+        <v>6.666666666666582</v>
       </c>
       <c r="L63" t="n">
         <v>89.11</v>
@@ -3492,7 +3514,7 @@
         <v>60.3</v>
       </c>
       <c r="K64" t="n">
-        <v>7.975460122699357</v>
+        <v>37.3134328358208</v>
       </c>
       <c r="L64" t="n">
         <v>89.48999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>62.59999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.825136612021868</v>
+        <v>2.22222222222225</v>
       </c>
       <c r="L65" t="n">
         <v>89.51000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>64</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.344632768361553</v>
+        <v>30.43478260869572</v>
       </c>
       <c r="L66" t="n">
         <v>89.67</v>
@@ -3645,7 +3667,7 @@
         <v>65.40000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.6060606060605706</v>
+        <v>12.38095238095234</v>
       </c>
       <c r="L67" t="n">
         <v>89.81</v>
@@ -3696,7 +3718,7 @@
         <v>66.80000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.11764705882354</v>
+        <v>-0.8403361344538517</v>
       </c>
       <c r="L68" t="n">
         <v>89.8</v>
@@ -3747,7 +3769,7 @@
         <v>67.70000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>-7.865168539325857</v>
+        <v>-1.694915254237308</v>
       </c>
       <c r="L69" t="n">
         <v>89.88</v>
@@ -3798,7 +3820,7 @@
         <v>67.70000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-7.344632768361553</v>
+        <v>-1.694915254237308</v>
       </c>
       <c r="L70" t="n">
         <v>89.85999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>68.40000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-3.260869565217354</v>
+        <v>12.06896551724141</v>
       </c>
       <c r="L71" t="n">
         <v>89.91</v>
@@ -3900,7 +3922,7 @@
         <v>68.70000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>-1.075268817204314</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>90.08</v>
@@ -3951,7 +3973,7 @@
         <v>69.70000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>4.081632653061202</v>
+        <v>-8.510638297872292</v>
       </c>
       <c r="L73" t="n">
         <v>90.34999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>71.00000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>9.090909090909092</v>
+        <v>2.380952380952409</v>
       </c>
       <c r="L74" t="n">
         <v>90.14000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>71.00000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>2.298850574712672</v>
+        <v>-17.14285714285715</v>
       </c>
       <c r="L75" t="n">
         <v>90.16000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>72.60000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>10.52631578947367</v>
+        <v>24.99999999999995</v>
       </c>
       <c r="L76" t="n">
         <v>90.20000000000002</v>
@@ -4155,7 +4177,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>9.947643979057609</v>
+        <v>26.76056338028179</v>
       </c>
       <c r="L77" t="n">
         <v>90.25000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>75.40000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>1.463414634146327</v>
+        <v>-6.493506493506502</v>
       </c>
       <c r="L78" t="n">
         <v>90.29000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>75.40000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>1.463414634146327</v>
+        <v>-6.493506493506502</v>
       </c>
       <c r="L79" t="n">
         <v>90.24000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>75.40000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-3.589743589743602</v>
+        <v>-17.14285714285722</v>
       </c>
       <c r="L80" t="n">
         <v>90.19000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>75.80000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-1.507537688442195</v>
+        <v>-15.4929577464788</v>
       </c>
       <c r="L81" t="n">
         <v>90.11</v>
@@ -4410,7 +4432,7 @@
         <v>78.80000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-10.90909090909086</v>
+        <v>-56.04395604395601</v>
       </c>
       <c r="L82" t="n">
         <v>89.7</v>
@@ -4461,7 +4483,7 @@
         <v>79.60000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>-7.017543859649095</v>
+        <v>-34.88372093023258</v>
       </c>
       <c r="L83" t="n">
         <v>89.27000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>82.80000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>-8.444444444444402</v>
+        <v>1.694915254237313</v>
       </c>
       <c r="L84" t="n">
         <v>89.28999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>82.80000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>1.980198019802007</v>
+        <v>-13.72549019607834</v>
       </c>
       <c r="L85" t="n">
         <v>89.30999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.761904761904791</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>89.17999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>2.857142857142857</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>89.17999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>86.80000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>-10</v>
+        <v>-21.05263157894741</v>
       </c>
       <c r="L88" t="n">
         <v>88.94</v>
@@ -4767,7 +4789,7 @@
         <v>87.20000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>-12.82051282051282</v>
+        <v>-16.94915254237286</v>
       </c>
       <c r="L89" t="n">
         <v>88.73999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>87.60000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>-10.55276381909545</v>
+        <v>-16.94915254237286</v>
       </c>
       <c r="L90" t="n">
         <v>88.58</v>
@@ -4869,7 +4891,7 @@
         <v>88.90000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>-7.317073170731707</v>
+        <v>22.77227722772273</v>
       </c>
       <c r="L91" t="n">
         <v>88.51000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>89.30000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.796116504854398</v>
+        <v>19.58762886597929</v>
       </c>
       <c r="L92" t="n">
         <v>88.78</v>
@@ -4971,7 +4993,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-12.69035532994925</v>
+        <v>-21.21212121212131</v>
       </c>
       <c r="L93" t="n">
         <v>88.96000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>89.80000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-8.510638297872388</v>
+        <v>-25.71428571428588</v>
       </c>
       <c r="L94" t="n">
         <v>88.78</v>
@@ -5073,7 +5095,7 @@
         <v>89.80000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-8.510638297872388</v>
+        <v>-27.53623188405803</v>
       </c>
       <c r="L95" t="n">
         <v>88.60000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>90.2</v>
       </c>
       <c r="K96" t="n">
-        <v>-20.45454545454543</v>
+        <v>-31.50684931506847</v>
       </c>
       <c r="L96" t="n">
         <v>88.37000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>90.5</v>
       </c>
       <c r="K97" t="n">
-        <v>-15.66265060240961</v>
+        <v>35.13513513513555</v>
       </c>
       <c r="L97" t="n">
         <v>88.11000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>90.5</v>
       </c>
       <c r="K98" t="n">
-        <v>-7.284768211920495</v>
+        <v>27.27272727272759</v>
       </c>
       <c r="L98" t="n">
         <v>88.24000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>90.69999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.882352941176515</v>
+        <v>22.58064516129021</v>
       </c>
       <c r="L99" t="n">
         <v>88.35000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>90.69999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.882352941176515</v>
+        <v>-33.33333333333439</v>
       </c>
       <c r="L100" t="n">
         <v>88.42000000000002</v>
@@ -5379,7 +5401,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>-2.531645569620292</v>
+        <v>-4.347826086956307</v>
       </c>
       <c r="L101" t="n">
         <v>88.45000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>93</v>
       </c>
       <c r="K102" t="n">
-        <v>28.16901408450707</v>
+        <v>38.88888888888911</v>
       </c>
       <c r="L102" t="n">
         <v>88.58000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>93.30000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>21.16788321167876</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L103" t="n">
         <v>88.69000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>93.40000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-3.773584905660433</v>
+        <v>38.88888888888911</v>
       </c>
       <c r="L104" t="n">
         <v>88.83000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>93.5</v>
       </c>
       <c r="K105" t="n">
-        <v>-4.672897196261687</v>
+        <v>51.51515151515164</v>
       </c>
       <c r="L105" t="n">
         <v>88.96000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>93.5</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.660377358490516</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L106" t="n">
         <v>89.13</v>
@@ -5685,7 +5707,7 @@
         <v>93.5</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.660377358490516</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L107" t="n">
         <v>89.33</v>
@@ -5736,7 +5758,7 @@
         <v>93.5</v>
       </c>
       <c r="K108" t="n">
-        <v>49.25373134328383</v>
+        <v>64.28571428571443</v>
       </c>
       <c r="L108" t="n">
         <v>89.53</v>
@@ -5787,7 +5809,7 @@
         <v>93.5</v>
       </c>
       <c r="K109" t="n">
-        <v>46.03174603174624</v>
+        <v>64.28571428571443</v>
       </c>
       <c r="L109" t="n">
         <v>89.70999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>93.60000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>39.99999999999995</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L110" t="n">
         <v>89.87999999999998</v>
@@ -5889,7 +5911,7 @@
         <v>93.7</v>
       </c>
       <c r="K111" t="n">
-        <v>20.83333333333341</v>
+        <v>-100</v>
       </c>
       <c r="L111" t="n">
         <v>89.94999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>93.7</v>
       </c>
       <c r="K112" t="n">
-        <v>13.63636363636386</v>
+        <v>-100</v>
       </c>
       <c r="L112" t="n">
         <v>89.88</v>
@@ -5991,7 +6013,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L113" t="n">
         <v>89.81999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>94.30000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>28.88888888888914</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>89.80999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>94.60000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>20.83333333333329</v>
+        <v>-27.27272727272774</v>
       </c>
       <c r="L115" t="n">
         <v>89.78</v>
@@ -6144,7 +6166,7 @@
         <v>94.70000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>28.88888888888874</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>89.73999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>94.90000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>31.81818181818148</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L117" t="n">
         <v>89.67999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>95.70000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>11.53846153846139</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L118" t="n">
         <v>89.53999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>97.10000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>-15.62499999999992</v>
+        <v>-77.14285714285691</v>
       </c>
       <c r="L119" t="n">
         <v>89.26000000000001</v>
@@ -6348,7 +6370,7 @@
         <v>97.10000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>-15.62499999999992</v>
+        <v>-76.47058823529392</v>
       </c>
       <c r="L120" t="n">
         <v>88.99000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>97.30000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>-29.82456140350866</v>
+        <v>-66.6666666666664</v>
       </c>
       <c r="L121" t="n">
         <v>88.75</v>
@@ -6450,7 +6472,7 @@
         <v>97.50000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>-73.33333333333313</v>
+        <v>-66.6666666666664</v>
       </c>
       <c r="L122" t="n">
         <v>88.48999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>98.80000000000004</v>
       </c>
       <c r="K123" t="n">
-        <v>-30.90909090909054</v>
+        <v>-33.33333333333312</v>
       </c>
       <c r="L123" t="n">
         <v>88.38</v>
@@ -6552,7 +6574,7 @@
         <v>98.90000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>-27.27272727272713</v>
+        <v>-25.58139534883701</v>
       </c>
       <c r="L124" t="n">
         <v>88.23999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>99.40000000000003</v>
       </c>
       <c r="K125" t="n">
-        <v>-15.2542372881356</v>
+        <v>-10.63829787234039</v>
       </c>
       <c r="L125" t="n">
         <v>88.17999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>99.80000000000004</v>
       </c>
       <c r="K126" t="n">
-        <v>-7.936507936507886</v>
+        <v>2.040816326530778</v>
       </c>
       <c r="L126" t="n">
         <v>88.16999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>99.80000000000004</v>
       </c>
       <c r="K127" t="n">
-        <v>-7.936507936507886</v>
+        <v>21.95121951219514</v>
       </c>
       <c r="L127" t="n">
         <v>88.17999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>101.2</v>
       </c>
       <c r="K128" t="n">
-        <v>-24.6753246753246</v>
+        <v>21.95121951219514</v>
       </c>
       <c r="L128" t="n">
         <v>88.13</v>
@@ -6807,7 +6829,7 @@
         <v>102.5</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.66666666666673</v>
+        <v>40.74074074074064</v>
       </c>
       <c r="L129" t="n">
         <v>88.34999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>104.7</v>
       </c>
       <c r="K130" t="n">
-        <v>-24.32432432432427</v>
+        <v>-2.702702702702734</v>
       </c>
       <c r="L130" t="n">
         <v>88.34999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>106.0000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>-10.56910569105684</v>
+        <v>15.29411764705891</v>
       </c>
       <c r="L131" t="n">
         <v>88.45999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>106.7</v>
       </c>
       <c r="K132" t="n">
-        <v>-4.615384615384666</v>
+        <v>8.860759493670736</v>
       </c>
       <c r="L132" t="n">
         <v>88.66</v>
@@ -7011,7 +7033,7 @@
         <v>107.4</v>
       </c>
       <c r="K133" t="n">
-        <v>-8.148148148148088</v>
+        <v>-1.176470588235227</v>
       </c>
       <c r="L133" t="n">
         <v>88.66</v>
@@ -7062,7 +7084,7 @@
         <v>107.4</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.45038167938929</v>
+        <v>-7.499999999999929</v>
       </c>
       <c r="L134" t="n">
         <v>88.64999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>107.4</v>
       </c>
       <c r="K135" t="n">
-        <v>-9.374999999999902</v>
+        <v>-13.15789473684212</v>
       </c>
       <c r="L135" t="n">
         <v>88.58999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>108.9</v>
       </c>
       <c r="K136" t="n">
-        <v>-18.30985915492952</v>
+        <v>-27.47252747252749</v>
       </c>
       <c r="L136" t="n">
         <v>88.33999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>110</v>
       </c>
       <c r="K137" t="n">
-        <v>-8.609271523178784</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>88.19999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>110</v>
       </c>
       <c r="K138" t="n">
-        <v>-3.496503496503494</v>
+        <v>-17.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>88.19999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>110.3</v>
       </c>
       <c r="K139" t="n">
-        <v>9.090909090909111</v>
+        <v>21.42857142857155</v>
       </c>
       <c r="L139" t="n">
         <v>88.09999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>110.3</v>
       </c>
       <c r="K140" t="n">
-        <v>9.090909090909111</v>
+        <v>-2.325581395349052</v>
       </c>
       <c r="L140" t="n">
         <v>88.21999999999998</v>
@@ -7419,7 +7441,7 @@
         <v>111.4</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.7092198581559883</v>
+        <v>-40.42553191489365</v>
       </c>
       <c r="L141" t="n">
         <v>88.09999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>112.4</v>
       </c>
       <c r="K142" t="n">
-        <v>7.382550335570532</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L142" t="n">
         <v>88.00999999999999</v>
@@ -7521,7 +7543,7 @@
         <v>112.4</v>
       </c>
       <c r="K143" t="n">
-        <v>-1.470588235294141</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L143" t="n">
         <v>87.98999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>112.4</v>
       </c>
       <c r="K144" t="n">
-        <v>-2.222222222222204</v>
+        <v>-4.000000000000068</v>
       </c>
       <c r="L144" t="n">
         <v>87.97</v>
@@ -7623,7 +7645,7 @@
         <v>112.6</v>
       </c>
       <c r="K145" t="n">
-        <v>-4.545454545454506</v>
+        <v>40.54054054054067</v>
       </c>
       <c r="L145" t="n">
         <v>87.97</v>
@@ -7674,7 +7696,7 @@
         <v>112.9</v>
       </c>
       <c r="K146" t="n">
-        <v>-5.343511450381709</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L146" t="n">
         <v>88.15000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>113.3</v>
       </c>
       <c r="K147" t="n">
-        <v>-8.14814814814822</v>
+        <v>9.090909090909012</v>
       </c>
       <c r="L147" t="n">
         <v>88.18000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>114</v>
       </c>
       <c r="K148" t="n">
-        <v>7.812500000000011</v>
+        <v>18.91891891891898</v>
       </c>
       <c r="L148" t="n">
         <v>88.28</v>
@@ -7827,7 +7849,7 @@
         <v>114</v>
       </c>
       <c r="K149" t="n">
-        <v>-2.608695652173891</v>
+        <v>18.91891891891898</v>
       </c>
       <c r="L149" t="n">
         <v>88.35000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>114</v>
       </c>
       <c r="K150" t="n">
-        <v>20.43010752688182</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L150" t="n">
         <v>88.42000000000002</v>
@@ -7929,7 +7951,7 @@
         <v>114</v>
       </c>
       <c r="K151" t="n">
-        <v>7.499999999999956</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L151" t="n">
         <v>88.60000000000001</v>
@@ -7980,7 +8002,7 @@
         <v>114</v>
       </c>
       <c r="K152" t="n">
-        <v>-1.369863013698555</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L152" t="n">
         <v>88.68000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>114</v>
       </c>
       <c r="K153" t="n">
-        <v>9.090909090909012</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L153" t="n">
         <v>88.76000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>114</v>
       </c>
       <c r="K154" t="n">
-        <v>9.090909090909012</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L154" t="n">
         <v>88.84</v>
@@ -8133,7 +8155,7 @@
         <v>114</v>
       </c>
       <c r="K155" t="n">
-        <v>9.090909090909012</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L155" t="n">
         <v>88.90000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>114.5</v>
       </c>
       <c r="K156" t="n">
-        <v>28.5714285714285</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L156" t="n">
         <v>88.88</v>
@@ -8235,7 +8257,7 @@
         <v>114.5</v>
       </c>
       <c r="K157" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L157" t="n">
         <v>88.90000000000001</v>
@@ -8286,7 +8308,7 @@
         <v>114.9</v>
       </c>
       <c r="K158" t="n">
-        <v>18.3673469387756</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L158" t="n">
         <v>88.89</v>
@@ -8337,7 +8359,7 @@
         <v>114.9</v>
       </c>
       <c r="K159" t="n">
-        <v>13.04347826086973</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L159" t="n">
         <v>88.88</v>
@@ -8388,7 +8410,7 @@
         <v>115</v>
       </c>
       <c r="K160" t="n">
-        <v>14.89361702127665</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>88.88</v>
@@ -8439,7 +8461,7 @@
         <v>115</v>
       </c>
       <c r="K161" t="n">
-        <v>49.9999999999998</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>88.88</v>
@@ -8490,7 +8512,7 @@
         <v>115.3</v>
       </c>
       <c r="K162" t="n">
-        <v>37.93103448275835</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L162" t="n">
         <v>88.91</v>
@@ -8541,7 +8563,7 @@
         <v>115.3</v>
       </c>
       <c r="K163" t="n">
-        <v>37.93103448275835</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L163" t="n">
         <v>88.93999999999998</v>
@@ -8592,7 +8614,7 @@
         <v>116.5</v>
       </c>
       <c r="K164" t="n">
-        <v>-2.439024390244105</v>
+        <v>-36.00000000000023</v>
       </c>
       <c r="L164" t="n">
         <v>88.84999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>116.6</v>
       </c>
       <c r="K165" t="n">
-        <v>-10.00000000000014</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L165" t="n">
         <v>88.74999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>116.6</v>
       </c>
       <c r="K166" t="n">
-        <v>-18.91891891891898</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L166" t="n">
         <v>88.69999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>117.8</v>
       </c>
       <c r="K167" t="n">
-        <v>20.00000000000012</v>
+        <v>10.34482758620683</v>
       </c>
       <c r="L167" t="n">
         <v>88.77</v>
@@ -8796,7 +8818,7 @@
         <v>118.9</v>
       </c>
       <c r="K168" t="n">
-        <v>-18.3673469387756</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L168" t="n">
         <v>88.69</v>
@@ -8847,7 +8869,7 @@
         <v>119.6</v>
       </c>
       <c r="K169" t="n">
-        <v>-3.571428571428617</v>
+        <v>-4.347826086956576</v>
       </c>
       <c r="L169" t="n">
         <v>88.67999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>119.7</v>
       </c>
       <c r="K170" t="n">
-        <v>-1.754385964912176</v>
+        <v>-2.127659574467956</v>
       </c>
       <c r="L170" t="n">
         <v>88.66999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>119.9</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.084745762711798</v>
+        <v>-13.04347826086938</v>
       </c>
       <c r="L171" t="n">
         <v>88.64</v>
@@ -9000,7 +9022,7 @@
         <v>120</v>
       </c>
       <c r="K172" t="n">
-        <v>-3.333333333333373</v>
+        <v>-10.63829787234039</v>
       </c>
       <c r="L172" t="n">
         <v>88.59</v>
@@ -9051,7 +9073,7 @@
         <v>121.2</v>
       </c>
       <c r="K173" t="n">
-        <v>13.88888888888886</v>
+        <v>40.42553191489359</v>
       </c>
       <c r="L173" t="n">
         <v>88.66</v>
@@ -9102,7 +9124,7 @@
         <v>124</v>
       </c>
       <c r="K174" t="n">
-        <v>37.99999999999991</v>
+        <v>64.86486486486466</v>
       </c>
       <c r="L174" t="n">
         <v>89.13</v>
@@ -9153,7 +9175,7 @@
         <v>124.4</v>
       </c>
       <c r="K175" t="n">
-        <v>32.69230769230773</v>
+        <v>56.4102564102564</v>
       </c>
       <c r="L175" t="n">
         <v>89.56999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>124.4</v>
       </c>
       <c r="K176" t="n">
-        <v>39.39393939393943</v>
+        <v>48.48484848484846</v>
       </c>
       <c r="L176" t="n">
         <v>90.00999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>124.5</v>
       </c>
       <c r="K177" t="n">
-        <v>40</v>
+        <v>78.57142857142875</v>
       </c>
       <c r="L177" t="n">
         <v>90.33999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>125</v>
       </c>
       <c r="K178" t="n">
-        <v>40.59405940594056</v>
+        <v>77.77777777777796</v>
       </c>
       <c r="L178" t="n">
         <v>90.82999999999998</v>
@@ -9357,7 +9379,7 @@
         <v>125.4</v>
       </c>
       <c r="K179" t="n">
-        <v>35.23809523809513</v>
+        <v>64.91228070175433</v>
       </c>
       <c r="L179" t="n">
         <v>91.20999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>125.5</v>
       </c>
       <c r="K180" t="n">
-        <v>33.33333333333333</v>
+        <v>67.85714285714305</v>
       </c>
       <c r="L180" t="n">
         <v>91.56999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>125.7</v>
       </c>
       <c r="K181" t="n">
-        <v>34.57943925233646</v>
+        <v>68.42105263157919</v>
       </c>
       <c r="L181" t="n">
         <v>91.97</v>
@@ -9510,7 +9532,7 @@
         <v>125.7</v>
       </c>
       <c r="K182" t="n">
-        <v>32.69230769230773</v>
+        <v>60.00000000000026</v>
       </c>
       <c r="L182" t="n">
         <v>92.36</v>
@@ -9561,7 +9583,7 @@
         <v>125.7</v>
       </c>
       <c r="K183" t="n">
-        <v>32.69230769230773</v>
+        <v>-5.882352941176175</v>
       </c>
       <c r="L183" t="n">
         <v>92.63000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>128.1</v>
       </c>
       <c r="K184" t="n">
-        <v>18.96551724137935</v>
+        <v>-56.75675675675716</v>
       </c>
       <c r="L184" t="n">
         <v>92.38000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>130</v>
       </c>
       <c r="K185" t="n">
-        <v>2.985074626865719</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L185" t="n">
         <v>91.98</v>
@@ -9714,7 +9736,7 @@
         <v>134.1</v>
       </c>
       <c r="K186" t="n">
-        <v>25.71428571428576</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>91.99000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>134.5</v>
       </c>
       <c r="K187" t="n">
-        <v>17.36526946107782</v>
+        <v>-9.473684210526404</v>
       </c>
       <c r="L187" t="n">
         <v>91.95000000000002</v>
@@ -9816,7 +9838,7 @@
         <v>135.1</v>
       </c>
       <c r="K188" t="n">
-        <v>28.39506172839513</v>
+        <v>1.030927835051636</v>
       </c>
       <c r="L188" t="n">
         <v>91.92000000000002</v>
@@ -9867,7 +9889,7 @@
         <v>135.8</v>
       </c>
       <c r="K189" t="n">
-        <v>19.75308641975314</v>
+        <v>-4.854368932038843</v>
       </c>
       <c r="L189" t="n">
         <v>91.86000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>136.5</v>
       </c>
       <c r="K190" t="n">
-        <v>14.28571428571427</v>
+        <v>-12.96296296296305</v>
       </c>
       <c r="L190" t="n">
         <v>91.74000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>136.5</v>
       </c>
       <c r="K191" t="n">
-        <v>15.66265060240965</v>
+        <v>-12.96296296296305</v>
       </c>
       <c r="L191" t="n">
         <v>91.59999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>136.6</v>
       </c>
       <c r="K192" t="n">
-        <v>14.45783132530128</v>
+        <v>-13.7614678899083</v>
       </c>
       <c r="L192" t="n">
         <v>91.45</v>
@@ -10071,7 +10093,7 @@
         <v>137.5</v>
       </c>
       <c r="K193" t="n">
-        <v>1.840490797546</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>91.20999999999999</v>
@@ -10122,7 +10144,7 @@
         <v>137.8</v>
       </c>
       <c r="K194" t="n">
-        <v>-20.28985507246379</v>
+        <v>20.51282051282041</v>
       </c>
       <c r="L194" t="n">
         <v>91.17999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>138.1</v>
       </c>
       <c r="K195" t="n">
-        <v>-15.32846715328475</v>
+        <v>-54.99999999999968</v>
       </c>
       <c r="L195" t="n">
         <v>91.36999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>138.4</v>
       </c>
       <c r="K196" t="n">
-        <v>-17.14285714285718</v>
+        <v>-53.84615384615324</v>
       </c>
       <c r="L196" t="n">
         <v>91.11999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>138.7</v>
       </c>
       <c r="K197" t="n">
-        <v>-15.49295774647888</v>
+        <v>-66.6666666666664</v>
       </c>
       <c r="L197" t="n">
         <v>90.93999999999998</v>
@@ -10326,7 +10348,7 @@
         <v>139.0000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>-21.42857142857138</v>
+        <v>-62.49999999999911</v>
       </c>
       <c r="L198" t="n">
         <v>90.66999999999999</v>
@@ -10377,7 +10399,7 @@
         <v>139.0000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-19.11764705882345</v>
+        <v>-51.9999999999987</v>
       </c>
       <c r="L199" t="n">
         <v>90.46999999999998</v>
@@ -10428,7 +10450,7 @@
         <v>139.2</v>
       </c>
       <c r="K200" t="n">
-        <v>-16.78832116788317</v>
+        <v>-40.74074074073985</v>
       </c>
       <c r="L200" t="n">
         <v>90.35999999999999</v>
@@ -10479,7 +10501,7 @@
         <v>140.2</v>
       </c>
       <c r="K201" t="n">
-        <v>-10.34482758620689</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>90.34999999999999</v>
@@ -10530,7 +10552,7 @@
         <v>140.3</v>
       </c>
       <c r="K202" t="n">
-        <v>-9.589041095890444</v>
+        <v>35.7142857142852</v>
       </c>
       <c r="L202" t="n">
         <v>90.35999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>141.6</v>
       </c>
       <c r="K203" t="n">
-        <v>-16.98113207547172</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>90.33</v>
@@ -10632,7 +10654,7 @@
         <v>142.8</v>
       </c>
       <c r="K204" t="n">
-        <v>6.12244897959188</v>
+        <v>19.14893617021293</v>
       </c>
       <c r="L204" t="n">
         <v>90.45</v>
@@ -10683,7 +10705,7 @@
         <v>142.8</v>
       </c>
       <c r="K205" t="n">
-        <v>21.87499999999996</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L205" t="n">
         <v>90.54000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>142.8</v>
       </c>
       <c r="K206" t="n">
-        <v>-14.94252873563212</v>
+        <v>21.95121951219544</v>
       </c>
       <c r="L206" t="n">
         <v>90.66000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>142.8</v>
       </c>
       <c r="K207" t="n">
-        <v>-10.84337349397579</v>
+        <v>31.57894736842151</v>
       </c>
       <c r="L207" t="n">
         <v>90.75000000000003</v>
@@ -10836,7 +10858,7 @@
         <v>142.9</v>
       </c>
       <c r="K208" t="n">
-        <v>-17.94871794871806</v>
+        <v>33.3333333333337</v>
       </c>
       <c r="L208" t="n">
         <v>90.88000000000002</v>
@@ -10887,7 +10909,7 @@
         <v>142.9</v>
       </c>
       <c r="K209" t="n">
-        <v>-9.859154929577512</v>
+        <v>29.7297297297299</v>
       </c>
       <c r="L209" t="n">
         <v>91.01000000000002</v>
@@ -10938,7 +10960,7 @@
         <v>144.1</v>
       </c>
       <c r="K210" t="n">
-        <v>15.78947368421052</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L210" t="n">
         <v>91.24000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>144.3</v>
       </c>
       <c r="K211" t="n">
-        <v>12.8205128205128</v>
+        <v>25.00000000000018</v>
       </c>
       <c r="L211" t="n">
         <v>91.34999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>144.5</v>
       </c>
       <c r="K212" t="n">
-        <v>16.4556962025316</v>
+        <v>86.20689655172481</v>
       </c>
       <c r="L212" t="n">
         <v>91.47</v>
@@ -11091,7 +11113,7 @@
         <v>144.5</v>
       </c>
       <c r="K213" t="n">
-        <v>31.42857142857147</v>
+        <v>76.47058823529446</v>
       </c>
       <c r="L213" t="n">
         <v>91.72</v>
@@ -11142,7 +11164,7 @@
         <v>144.5</v>
       </c>
       <c r="K214" t="n">
-        <v>37.31343283582096</v>
+        <v>76.47058823529446</v>
       </c>
       <c r="L214" t="n">
         <v>91.84999999999999</v>
@@ -11193,7 +11215,7 @@
         <v>144.5</v>
       </c>
       <c r="K215" t="n">
-        <v>34.37500000000016</v>
+        <v>76.47058823529446</v>
       </c>
       <c r="L215" t="n">
         <v>91.97999999999999</v>
@@ -11244,7 +11266,7 @@
         <v>144.6</v>
       </c>
       <c r="K216" t="n">
-        <v>41.93548387096792</v>
+        <v>77.77777777777804</v>
       </c>
       <c r="L216" t="n">
         <v>92.11999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>144.7</v>
       </c>
       <c r="K217" t="n">
-        <v>40.00000000000048</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L217" t="n">
         <v>92.27</v>
@@ -11346,7 +11368,7 @@
         <v>144.7</v>
       </c>
       <c r="K218" t="n">
-        <v>47.3684210526322</v>
+        <v>77.77777777777884</v>
       </c>
       <c r="L218" t="n">
         <v>92.41</v>
@@ -11397,7 +11419,7 @@
         <v>144.8</v>
       </c>
       <c r="K219" t="n">
-        <v>48.27586206896608</v>
+        <v>42.85714285714489</v>
       </c>
       <c r="L219" t="n">
         <v>92.56</v>
@@ -11448,7 +11470,7 @@
         <v>144.9</v>
       </c>
       <c r="K220" t="n">
-        <v>47.3684210526322</v>
+        <v>100.0000000000071</v>
       </c>
       <c r="L220" t="n">
         <v>92.59999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>146.9</v>
       </c>
       <c r="K221" t="n">
-        <v>55.22388059701553</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L221" t="n">
         <v>92.86</v>
@@ -11550,7 +11572,7 @@
         <v>147.8</v>
       </c>
       <c r="K222" t="n">
-        <v>60.00000000000069</v>
+        <v>100.0000000000013</v>
       </c>
       <c r="L222" t="n">
         <v>93.19000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>147.9</v>
       </c>
       <c r="K223" t="n">
-        <v>93.65079365079441</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L223" t="n">
         <v>93.53000000000002</v>
@@ -11652,7 +11674,7 @@
         <v>148</v>
       </c>
       <c r="K224" t="n">
-        <v>88.46153846153855</v>
+        <v>94.28571428571421</v>
       </c>
       <c r="L224" t="n">
         <v>93.86000000000001</v>
@@ -11703,7 +11725,7 @@
         <v>148.1</v>
       </c>
       <c r="K225" t="n">
-        <v>84.90566037735876</v>
+        <v>88.57142857142881</v>
       </c>
       <c r="L225" t="n">
         <v>94.18000000000002</v>
@@ -11754,7 +11776,7 @@
         <v>149.3</v>
       </c>
       <c r="K226" t="n">
-        <v>50.76923076923072</v>
+        <v>39.13043478260844</v>
       </c>
       <c r="L226" t="n">
         <v>94.37000000000002</v>
@@ -11805,7 +11827,7 @@
         <v>150.4</v>
       </c>
       <c r="K227" t="n">
-        <v>57.8947368421052</v>
+        <v>50.87719298245585</v>
       </c>
       <c r="L227" t="n">
         <v>94.66000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>150.5</v>
       </c>
       <c r="K228" t="n">
-        <v>57.89473684210537</v>
+        <v>50.87719298245609</v>
       </c>
       <c r="L228" t="n">
         <v>94.96000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>150.6</v>
       </c>
       <c r="K229" t="n">
-        <v>55.84415584415569</v>
+        <v>47.368421052631</v>
       </c>
       <c r="L229" t="n">
         <v>95.24000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>150.7</v>
       </c>
       <c r="K230" t="n">
-        <v>48.48484848484836</v>
+        <v>21.05263157894692</v>
       </c>
       <c r="L230" t="n">
         <v>95.52000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>150.7</v>
       </c>
       <c r="K231" t="n">
-        <v>53.12499999999981</v>
+        <v>-3.448275862068662</v>
       </c>
       <c r="L231" t="n">
         <v>95.60000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>150.7</v>
       </c>
       <c r="K232" t="n">
-        <v>51.61290322580611</v>
+        <v>-7.14285714285707</v>
       </c>
       <c r="L232" t="n">
         <v>95.59</v>
@@ -12111,7 +12133,7 @@
         <v>151.1</v>
       </c>
       <c r="K233" t="n">
-        <v>54.54545454545428</v>
+        <v>9.677419354838547</v>
       </c>
       <c r="L233" t="n">
         <v>95.61</v>
@@ -12162,7 +12184,7 @@
         <v>151.5</v>
       </c>
       <c r="K234" t="n">
-        <v>57.1428571428569</v>
+        <v>23.52941176470556</v>
       </c>
       <c r="L234" t="n">
         <v>95.67999999999999</v>
@@ -12213,7 +12235,7 @@
         <v>154.5</v>
       </c>
       <c r="K235" t="n">
-        <v>69.9999999999998</v>
+        <v>96.15384615384583</v>
       </c>
       <c r="L235" t="n">
         <v>96.05999999999999</v>
@@ -12264,7 +12286,7 @@
         <v>155.8</v>
       </c>
       <c r="K236" t="n">
-        <v>50</v>
+        <v>48.14814814814826</v>
       </c>
       <c r="L236" t="n">
         <v>96.42999999999999</v>
@@ -12315,7 +12337,7 @@
         <v>155.9</v>
       </c>
       <c r="K237" t="n">
-        <v>48.21428571428545</v>
+        <v>44.444444444444</v>
       </c>
       <c r="L237" t="n">
         <v>96.67999999999998</v>
@@ -12366,7 +12388,7 @@
         <v>156.8</v>
       </c>
       <c r="K238" t="n">
-        <v>52.0661157024791</v>
+        <v>54.8387096774193</v>
       </c>
       <c r="L238" t="n">
         <v>97.00999999999996</v>
@@ -12417,7 +12439,7 @@
         <v>156.9</v>
       </c>
       <c r="K239" t="n">
-        <v>50.41322314049572</v>
+        <v>51.6129032258066</v>
       </c>
       <c r="L239" t="n">
         <v>97.33999999999997</v>
@@ -12468,7 +12490,7 @@
         <v>157.8</v>
       </c>
       <c r="K240" t="n">
-        <v>39.53488372093</v>
+        <v>32.39436619718308</v>
       </c>
       <c r="L240" t="n">
         <v>97.56999999999996</v>
@@ -12519,7 +12541,7 @@
         <v>158.5000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>32.75862068965492</v>
+        <v>38.46153846153841</v>
       </c>
       <c r="L241" t="n">
         <v>97.86999999999996</v>
@@ -12570,7 +12592,7 @@
         <v>158.6000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>25.9259259259256</v>
+        <v>33.33333333333308</v>
       </c>
       <c r="L242" t="n">
         <v>98.15999999999994</v>
@@ -12621,7 +12643,7 @@
         <v>158.7000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>24.07407407407381</v>
+        <v>27.7777777777776</v>
       </c>
       <c r="L243" t="n">
         <v>98.39999999999995</v>
@@ -12672,7 +12694,7 @@
         <v>159.0000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>21.81818181818176</v>
+        <v>-28.88888888888864</v>
       </c>
       <c r="L244" t="n">
         <v>98.56999999999994</v>
@@ -12723,7 +12745,7 @@
         <v>159.0000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>22.93577981651363</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>98.43999999999994</v>
@@ -12774,7 +12796,7 @@
         <v>159.0000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>38.14432989690707</v>
+        <v>3.225806451613154</v>
       </c>
       <c r="L246" t="n">
         <v>98.43999999999994</v>
@@ -12825,7 +12847,7 @@
         <v>159.1000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>28.7356321839078</v>
+        <v>-39.13043478260826</v>
       </c>
       <c r="L247" t="n">
         <v>98.43999999999993</v>
@@ -12876,7 +12898,7 @@
         <v>159.4000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>30.33707865168512</v>
+        <v>-19.99999999999955</v>
       </c>
       <c r="L248" t="n">
         <v>98.37999999999992</v>
@@ -12927,7 +12949,7 @@
         <v>159.4000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>31.8181818181817</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L249" t="n">
         <v>98.32999999999994</v>
@@ -12978,7 +13000,7 @@
         <v>159.6000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>28.08988764044933</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L250" t="n">
         <v>98.34999999999994</v>
@@ -13029,7 +13051,7 @@
         <v>159.6000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>28.08988764044933</v>
+        <v>-39.99999999999915</v>
       </c>
       <c r="L251" t="n">
         <v>98.29999999999993</v>
@@ -13080,7 +13102,7 @@
         <v>159.8000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>29.67032967032963</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L252" t="n">
         <v>98.27999999999994</v>
@@ -13131,7 +13153,7 @@
         <v>159.8000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>26.43678160919539</v>
+        <v>25</v>
       </c>
       <c r="L253" t="n">
         <v>98.26999999999994</v>
@@ -13182,7 +13204,7 @@
         <v>159.8000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>22.8915662650602</v>
+        <v>25</v>
       </c>
       <c r="L254" t="n">
         <v>98.28999999999994</v>
@@ -13233,7 +13255,7 @@
         <v>159.8000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>-20.75471698113181</v>
+        <v>25</v>
       </c>
       <c r="L255" t="n">
         <v>98.30999999999995</v>
@@ -13284,7 +13306,7 @@
         <v>160.0000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>11.11111111111234</v>
       </c>
       <c r="L256" t="n">
         <v>98.30999999999995</v>
@@ -13335,7 +13357,7 @@
         <v>160.2</v>
       </c>
       <c r="K257" t="n">
-        <v>6.976744186046757</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>98.33999999999995</v>
@@ -13386,7 +13408,7 @@
         <v>160.4</v>
       </c>
       <c r="K258" t="n">
-        <v>-22.22222222222218</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L258" t="n">
         <v>98.31999999999995</v>
@@ -13437,7 +13459,7 @@
         <v>160.6</v>
       </c>
       <c r="K259" t="n">
-        <v>-13.51351351351356</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L259" t="n">
         <v>98.31999999999995</v>
@@ -13488,7 +13510,7 @@
         <v>160.8</v>
       </c>
       <c r="K260" t="n">
-        <v>6.666666666666825</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>98.31999999999994</v>
@@ -13539,7 +13561,7 @@
         <v>162</v>
       </c>
       <c r="K261" t="n">
-        <v>20.00000000000041</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L261" t="n">
         <v>98.43999999999994</v>
@@ -13590,7 +13612,7 @@
         <v>162</v>
       </c>
       <c r="K262" t="n">
-        <v>23.52941176470677</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L262" t="n">
         <v>98.53999999999995</v>
@@ -13641,7 +13663,7 @@
         <v>162</v>
       </c>
       <c r="K263" t="n">
-        <v>27.27272727272805</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L263" t="n">
         <v>98.63999999999996</v>
@@ -13692,7 +13714,7 @@
         <v>162</v>
       </c>
       <c r="K264" t="n">
-        <v>40.00000000000085</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L264" t="n">
         <v>98.73999999999995</v>
@@ -13743,7 +13765,7 @@
         <v>162</v>
       </c>
       <c r="K265" t="n">
-        <v>40.00000000000085</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L265" t="n">
         <v>98.83999999999995</v>
@@ -13794,7 +13816,7 @@
         <v>162.1</v>
       </c>
       <c r="K266" t="n">
-        <v>41.9354838709685</v>
+        <v>57.89473684210652</v>
       </c>
       <c r="L266" t="n">
         <v>98.96999999999996</v>
@@ -13845,7 +13867,7 @@
         <v>162.1</v>
       </c>
       <c r="K267" t="n">
-        <v>46.66666666666818</v>
+        <v>76.47058823529575</v>
       </c>
       <c r="L267" t="n">
         <v>99.07999999999996</v>
@@ -13896,7 +13918,7 @@
         <v>162.2</v>
       </c>
       <c r="K268" t="n">
-        <v>35.71428571428702</v>
+        <v>62.50000000000134</v>
       </c>
       <c r="L268" t="n">
         <v>99.19999999999996</v>
@@ -13947,7 +13969,7 @@
         <v>162.2</v>
       </c>
       <c r="K269" t="n">
-        <v>35.71428571428702</v>
+        <v>85.71428571428731</v>
       </c>
       <c r="L269" t="n">
         <v>99.29999999999997</v>
@@ -13998,7 +14020,7 @@
         <v>163.4</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>-85.71428571428731</v>
       </c>
       <c r="L270" t="n">
         <v>99.29999999999995</v>
@@ -14049,7 +14071,7 @@
         <v>163.5</v>
       </c>
       <c r="K271" t="n">
-        <v>-2.564102564102835</v>
+        <v>-86.66666666666742</v>
       </c>
       <c r="L271" t="n">
         <v>99.16999999999994</v>
@@ -14100,7 +14122,7 @@
         <v>163.8</v>
       </c>
       <c r="K272" t="n">
-        <v>-15.00000000000043</v>
+        <v>-88.8888888888888</v>
       </c>
       <c r="L272" t="n">
         <v>99.00999999999996</v>
@@ -14151,7 +14173,7 @@
         <v>163.9</v>
       </c>
       <c r="K273" t="n">
-        <v>-17.07317073170764</v>
+        <v>-89.47368421052619</v>
       </c>
       <c r="L273" t="n">
         <v>98.83999999999995</v>
@@ -14202,7 +14224,7 @@
         <v>165.6</v>
       </c>
       <c r="K274" t="n">
-        <v>-41.37931034482801</v>
+        <v>-94.444444444444</v>
       </c>
       <c r="L274" t="n">
         <v>98.49999999999997</v>
@@ -14253,7 +14275,7 @@
         <v>166</v>
       </c>
       <c r="K275" t="n">
-        <v>-45.16129032258112</v>
+        <v>-99.99999999999926</v>
       </c>
       <c r="L275" t="n">
         <v>98.11999999999998</v>
@@ -14304,7 +14326,7 @@
         <v>168.3</v>
       </c>
       <c r="K276" t="n">
-        <v>-59.03614457831365</v>
+        <v>-99.99999999999977</v>
       </c>
       <c r="L276" t="n">
         <v>97.49999999999997</v>
@@ -14355,7 +14377,7 @@
         <v>168.3</v>
       </c>
       <c r="K277" t="n">
-        <v>-62.96296296296333</v>
+        <v>-99.99999999999977</v>
       </c>
       <c r="L277" t="n">
         <v>96.87999999999997</v>
@@ -14406,7 +14428,7 @@
         <v>170.6</v>
       </c>
       <c r="K278" t="n">
-        <v>-25.49019607843148</v>
+        <v>-45.23809523809519</v>
       </c>
       <c r="L278" t="n">
         <v>96.49999999999997</v>
@@ -14457,7 +14479,7 @@
         <v>171.2</v>
       </c>
       <c r="K279" t="n">
-        <v>-32.07547169811328</v>
+        <v>-41.02564102564085</v>
       </c>
       <c r="L279" t="n">
         <v>96.05999999999996</v>
@@ -14508,7 +14530,7 @@
         <v>171.5</v>
       </c>
       <c r="K280" t="n">
-        <v>-27.10280373831784</v>
+        <v>-34.99999999999996</v>
       </c>
       <c r="L280" t="n">
         <v>95.76999999999995</v>
@@ -14559,7 +14581,7 @@
         <v>174.1</v>
       </c>
       <c r="K281" t="n">
-        <v>-12.39669421487601</v>
+        <v>0.9708737864078488</v>
       </c>
       <c r="L281" t="n">
         <v>95.74999999999997</v>
@@ -14610,7 +14632,7 @@
         <v>175.2</v>
       </c>
       <c r="K282" t="n">
-        <v>-19.69696969696969</v>
+        <v>-7.964601769911527</v>
       </c>
       <c r="L282" t="n">
         <v>95.64999999999998</v>
@@ -14661,7 +14683,7 @@
         <v>175.2</v>
       </c>
       <c r="K283" t="n">
-        <v>-19.69696969696969</v>
+        <v>8.333333333333284</v>
       </c>
       <c r="L283" t="n">
         <v>95.55999999999997</v>
@@ -14712,7 +14734,7 @@
         <v>176.0000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>-24.28571428571423</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L284" t="n">
         <v>95.55999999999997</v>
@@ -14763,7 +14785,7 @@
         <v>176.8000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>-28.37837837837827</v>
+        <v>22.35294117647051</v>
       </c>
       <c r="L285" t="n">
         <v>95.51999999999997</v>
@@ -14814,7 +14836,7 @@
         <v>178.2</v>
       </c>
       <c r="K286" t="n">
-        <v>-18.01242236024843</v>
+        <v>33.33333333333319</v>
       </c>
       <c r="L286" t="n">
         <v>95.84999999999998</v>
@@ -14865,7 +14887,7 @@
         <v>179.6</v>
       </c>
       <c r="K287" t="n">
-        <v>-24.57142857142852</v>
+        <v>-4.44444444444435</v>
       </c>
       <c r="L287" t="n">
         <v>96.03999999999999</v>
@@ -14916,7 +14938,7 @@
         <v>179.6</v>
       </c>
       <c r="K288" t="n">
-        <v>-24.13793103448273</v>
+        <v>2.380952380952413</v>
       </c>
       <c r="L288" t="n">
         <v>95.99999999999999</v>
@@ -14967,7 +14989,7 @@
         <v>180.9</v>
       </c>
       <c r="K289" t="n">
-        <v>-15.50802139037432</v>
+        <v>12.7659574468085</v>
       </c>
       <c r="L289" t="n">
         <v>96.15000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>181.4</v>
       </c>
       <c r="K290" t="n">
-        <v>-12.2222222222222</v>
+        <v>-26.02739726027401</v>
       </c>
       <c r="L290" t="n">
         <v>96.22</v>
@@ -15069,7 +15091,7 @@
         <v>181.6</v>
       </c>
       <c r="K291" t="n">
-        <v>-12.70718232044196</v>
+        <v>-15.62500000000006</v>
       </c>
       <c r="L291" t="n">
         <v>96.01000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>181.9</v>
       </c>
       <c r="K292" t="n">
-        <v>-12.70718232044196</v>
+        <v>-19.40298507462686</v>
       </c>
       <c r="L292" t="n">
         <v>95.88</v>
@@ -15171,7 +15193,7 @@
         <v>182.4</v>
       </c>
       <c r="K293" t="n">
-        <v>-14.59459459459459</v>
+        <v>-15.62500000000006</v>
       </c>
       <c r="L293" t="n">
         <v>95.7</v>
@@ -15222,7 +15244,7 @@
         <v>184.1</v>
       </c>
       <c r="K294" t="n">
-        <v>-14.59459459459461</v>
+        <v>-26.02739726027421</v>
       </c>
       <c r="L294" t="n">
         <v>95.42999999999999</v>
@@ -15273,7 +15295,7 @@
         <v>187.2</v>
       </c>
       <c r="K295" t="n">
-        <v>3.773584905660428</v>
+        <v>-2.222222222222096</v>
       </c>
       <c r="L295" t="n">
         <v>95.55</v>
@@ -15324,7 +15346,7 @@
         <v>188.3000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>9.999999999999972</v>
+        <v>1.14942528735625</v>
       </c>
       <c r="L296" t="n">
         <v>95.41999999999999</v>
@@ -15375,7 +15397,7 @@
         <v>189.2000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>13.87559808612439</v>
+        <v>10.41666666666661</v>
       </c>
       <c r="L297" t="n">
         <v>95.51999999999998</v>
@@ -15426,7 +15448,7 @@
         <v>190.1000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>-1.538461538461519</v>
+        <v>-13.04347826086953</v>
       </c>
       <c r="L298" t="n">
         <v>95.52999999999997</v>
@@ -15477,7 +15499,7 @@
         <v>191.2000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>6.999999999999998</v>
+        <v>4.081632653061254</v>
       </c>
       <c r="L299" t="n">
         <v>95.51999999999998</v>
@@ -15528,7 +15550,7 @@
         <v>194.5000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>-9.565217391304314</v>
+        <v>-20.93023255813941</v>
       </c>
       <c r="L300" t="n">
         <v>95.22999999999998</v>
@@ -15579,7 +15601,7 @@
         <v>196.4000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>-13.0044843049327</v>
+        <v>-3.448275862068945</v>
       </c>
       <c r="L301" t="n">
         <v>95.14999999999998</v>
@@ -15630,7 +15652,7 @@
         <v>196.6000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>-7.476635514018633</v>
+        <v>1.408450704225362</v>
       </c>
       <c r="L302" t="n">
         <v>95.11999999999998</v>
@@ -15681,7 +15703,7 @@
         <v>196.7000000000002</v>
       </c>
       <c r="K303" t="n">
-        <v>-7.906976744186017</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L303" t="n">
         <v>95.12999999999997</v>
@@ -15732,7 +15754,7 @@
         <v>196.8000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>-4.807692307692285</v>
+        <v>-14.58333333333323</v>
       </c>
       <c r="L304" t="n">
         <v>95.29999999999998</v>
@@ -15783,7 +15805,7 @@
         <v>197.0000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>-1.980198019801998</v>
+        <v>-5.747126436781542</v>
       </c>
       <c r="L305" t="n">
         <v>95.13999999999997</v>
@@ -15834,7 +15856,7 @@
         <v>197.1000000000002</v>
       </c>
       <c r="K306" t="n">
-        <v>-8.994708994708864</v>
+        <v>-16.45569620253136</v>
       </c>
       <c r="L306" t="n">
         <v>95.09999999999998</v>
@@ -15885,7 +15907,7 @@
         <v>198.7000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>-9.947643979057521</v>
+        <v>-23.255813953488</v>
       </c>
       <c r="L307" t="n">
         <v>94.80999999999997</v>
@@ -15936,7 +15958,7 @@
         <v>199.9000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>-3.448275862068949</v>
+        <v>-21.83908045976992</v>
       </c>
       <c r="L308" t="n">
         <v>94.72999999999998</v>
@@ -15987,7 +16009,7 @@
         <v>201.2000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>-16.25615763546782</v>
+        <v>1.49253731343294</v>
       </c>
       <c r="L309" t="n">
         <v>94.40999999999998</v>
@@ -16038,7 +16060,7 @@
         <v>201.8000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>-16.66666666666653</v>
+        <v>-44.44444444444356</v>
       </c>
       <c r="L310" t="n">
         <v>94.35999999999999</v>
@@ -16089,7 +16111,7 @@
         <v>202.3000000000002</v>
       </c>
       <c r="K311" t="n">
-        <v>-13.04347826086944</v>
+        <v>-36.84210526315738</v>
       </c>
       <c r="L311" t="n">
         <v>94.16999999999999</v>
@@ -16140,7 +16162,7 @@
         <v>203.1000000000003</v>
       </c>
       <c r="K312" t="n">
-        <v>-7.54716981132065</v>
+        <v>-18.74999999999956</v>
       </c>
       <c r="L312" t="n">
         <v>94.03999999999999</v>
@@ -16191,7 +16213,7 @@
         <v>203.6000000000003</v>
       </c>
       <c r="K313" t="n">
-        <v>-2.830188679245227</v>
+        <v>-8.823529411764497</v>
       </c>
       <c r="L313" t="n">
         <v>93.97</v>
@@ -16242,7 +16264,7 @@
         <v>203.6000000000003</v>
       </c>
       <c r="K314" t="n">
-        <v>5.641025641025619</v>
+        <v>-6.060606060605858</v>
       </c>
       <c r="L314" t="n">
         <v>93.91</v>
@@ -16293,7 +16315,7 @@
         <v>205.4000000000003</v>
       </c>
       <c r="K315" t="n">
-        <v>-20.87912087912069</v>
+        <v>-27.71084337349389</v>
       </c>
       <c r="L315" t="n">
         <v>93.68999999999998</v>
@@ -16344,7 +16366,7 @@
         <v>206.6000000000003</v>
       </c>
       <c r="K316" t="n">
-        <v>-8.196721311475329</v>
+        <v>6.329113924050605</v>
       </c>
       <c r="L316" t="n">
         <v>93.57999999999998</v>
@@ -16395,7 +16417,7 @@
         <v>206.8000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>-14.77272727272718</v>
+        <v>-13.04347826086958</v>
       </c>
       <c r="L317" t="n">
         <v>93.60999999999999</v>
@@ -16446,7 +16468,7 @@
         <v>208.0000000000002</v>
       </c>
       <c r="K318" t="n">
-        <v>-2.793296089385452</v>
+        <v>23.52941176470576</v>
       </c>
       <c r="L318" t="n">
         <v>93.63999999999999</v>
@@ -16497,7 +16519,7 @@
         <v>208.2000000000002</v>
       </c>
       <c r="K319" t="n">
-        <v>-8.235294117647037</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L319" t="n">
         <v>93.81999999999998</v>
@@ -16548,7 +16570,7 @@
         <v>209.1000000000002</v>
       </c>
       <c r="K320" t="n">
-        <v>6.8493150684931</v>
+        <v>14.70588235294121</v>
       </c>
       <c r="L320" t="n">
         <v>93.96999999999997</v>
@@ -16599,7 +16621,7 @@
         <v>209.1000000000002</v>
       </c>
       <c r="K321" t="n">
-        <v>-7.086614173228334</v>
+        <v>3.33333333333316</v>
       </c>
       <c r="L321" t="n">
         <v>94.06999999999996</v>
@@ -16650,7 +16672,7 @@
         <v>209.3000000000002</v>
       </c>
       <c r="K322" t="n">
-        <v>-10.23622047244086</v>
+        <v>-8.771929824561465</v>
       </c>
       <c r="L322" t="n">
         <v>94.06999999999996</v>
@@ -16701,7 +16723,7 @@
         <v>209.3000000000002</v>
       </c>
       <c r="K323" t="n">
-        <v>-9.523809523809396</v>
+        <v>-8.771929824561465</v>
       </c>
       <c r="L323" t="n">
         <v>94.01999999999997</v>
@@ -16752,7 +16774,7 @@
         <v>209.5000000000002</v>
       </c>
       <c r="K324" t="n">
-        <v>-7.086614173228366</v>
+        <v>36.5853658536591</v>
       </c>
       <c r="L324" t="n">
         <v>93.98999999999998</v>
@@ -16803,7 +16825,7 @@
         <v>209.5000000000002</v>
       </c>
       <c r="K325" t="n">
-        <v>-5.600000000000009</v>
+        <v>10.34482758620698</v>
       </c>
       <c r="L325" t="n">
         <v>94.13999999999997</v>
@@ -16854,7 +16876,7 @@
         <v>209.5000000000002</v>
       </c>
       <c r="K326" t="n">
-        <v>-6.451612903225895</v>
+        <v>18.51851851851879</v>
       </c>
       <c r="L326" t="n">
         <v>94.16999999999999</v>
@@ -16905,7 +16927,7 @@
         <v>210.6000000000002</v>
       </c>
       <c r="K327" t="n">
-        <v>15.96638655462193</v>
+        <v>15.3846153846158</v>
       </c>
       <c r="L327" t="n">
         <v>94.32999999999998</v>
@@ -16956,7 +16978,7 @@
         <v>210.7000000000002</v>
       </c>
       <c r="K328" t="n">
-        <v>5.555555555555497</v>
+        <v>3.999999999999773</v>
       </c>
       <c r="L328" t="n">
         <v>94.35999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>210.8000000000002</v>
       </c>
       <c r="K329" t="n">
-        <v>18.74999999999998</v>
+        <v>52.94117647058892</v>
       </c>
       <c r="L329" t="n">
         <v>94.35999999999999</v>
@@ -17058,7 +17080,7 @@
         <v>213.1000000000002</v>
       </c>
       <c r="K330" t="n">
-        <v>0.8849557522124685</v>
+        <v>-35.00000000000004</v>
       </c>
       <c r="L330" t="n">
         <v>94.22</v>
@@ -17109,7 +17131,7 @@
         <v>215.4000000000002</v>
       </c>
       <c r="K331" t="n">
-        <v>14.50381679389321</v>
+        <v>18.03278688524582</v>
       </c>
       <c r="L331" t="n">
         <v>94.30999999999997</v>
@@ -17160,7 +17182,7 @@
         <v>215.5000000000002</v>
       </c>
       <c r="K332" t="n">
-        <v>8.064516129032292</v>
+        <v>16.12903225806455</v>
       </c>
       <c r="L332" t="n">
         <v>94.40999999999998</v>
@@ -17211,7 +17233,7 @@
         <v>217.1000000000002</v>
       </c>
       <c r="K333" t="n">
-        <v>-8.148148148148247</v>
+        <v>-10.52631578947365</v>
       </c>
       <c r="L333" t="n">
         <v>94.34999999999999</v>
@@ -17262,7 +17284,7 @@
         <v>218.7000000000002</v>
       </c>
       <c r="K334" t="n">
-        <v>3.311258278145703</v>
+        <v>8.695652173913151</v>
       </c>
       <c r="L334" t="n">
         <v>94.42999999999998</v>
@@ -17313,7 +17335,7 @@
         <v>220.3000000000002</v>
       </c>
       <c r="K335" t="n">
-        <v>4.697986577181235</v>
+        <v>-7.407407407407354</v>
       </c>
       <c r="L335" t="n">
         <v>94.34999999999999</v>
@@ -17364,7 +17386,7 @@
         <v>220.6000000000003</v>
       </c>
       <c r="K336" t="n">
-        <v>-5.714285714285694</v>
+        <v>-21.9999999999999</v>
       </c>
       <c r="L336" t="n">
         <v>94.23999999999999</v>
@@ -17415,7 +17437,7 @@
         <v>220.9000000000003</v>
       </c>
       <c r="K337" t="n">
-        <v>-6.382978723404184</v>
+        <v>-23.52941176470569</v>
       </c>
       <c r="L337" t="n">
         <v>93.98999999999998</v>
@@ -17466,7 +17488,7 @@
         <v>222.6000000000003</v>
       </c>
       <c r="K338" t="n">
-        <v>-2.739726027397198</v>
+        <v>-5.084745762711798</v>
       </c>
       <c r="L338" t="n">
         <v>93.91999999999999</v>
@@ -17517,7 +17539,7 @@
         <v>222.9000000000003</v>
       </c>
       <c r="K339" t="n">
-        <v>-2.040816326530587</v>
+        <v>20.40816326530598</v>
       </c>
       <c r="L339" t="n">
         <v>93.88999999999999</v>
@@ -17568,7 +17590,7 @@
         <v>223.1000000000003</v>
       </c>
       <c r="K340" t="n">
-        <v>5.714285714285785</v>
+        <v>-1.298701298701217</v>
       </c>
       <c r="L340" t="n">
         <v>94.10999999999999</v>
@@ -17619,7 +17641,7 @@
         <v>223.2000000000003</v>
       </c>
       <c r="K341" t="n">
-        <v>4.964539007092201</v>
+        <v>-1.298701298701397</v>
       </c>
       <c r="L341" t="n">
         <v>94.08999999999999</v>
@@ -17670,7 +17692,7 @@
         <v>223.3000000000003</v>
       </c>
       <c r="K342" t="n">
-        <v>7.1428571428571</v>
+        <v>25.80645161290294</v>
       </c>
       <c r="L342" t="n">
         <v>94.09</v>
@@ -17721,7 +17743,7 @@
         <v>223.4000000000003</v>
       </c>
       <c r="K343" t="n">
-        <v>6.382978723404147</v>
+        <v>-2.127659574468221</v>
       </c>
       <c r="L343" t="n">
         <v>94.24000000000001</v>
@@ -17772,7 +17794,7 @@
         <v>224.6000000000003</v>
       </c>
       <c r="K344" t="n">
-        <v>-3.311258278145671</v>
+        <v>6.976744186046336</v>
       </c>
       <c r="L344" t="n">
         <v>94.11</v>
@@ -17823,7 +17845,7 @@
         <v>225.0000000000003</v>
       </c>
       <c r="K345" t="n">
-        <v>-0.6451612903225392</v>
+        <v>22.7272727272724</v>
       </c>
       <c r="L345" t="n">
         <v>94.17999999999999</v>
@@ -17874,7 +17896,7 @@
         <v>225.2000000000003</v>
       </c>
       <c r="K346" t="n">
-        <v>0.6369426751592847</v>
+        <v>34.883720930232</v>
       </c>
       <c r="L346" t="n">
         <v>94.3</v>
@@ -17925,7 +17947,7 @@
         <v>225.4000000000003</v>
       </c>
       <c r="K347" t="n">
-        <v>-8.108108108108059</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L347" t="n">
         <v>94.42999999999999</v>
@@ -17976,7 +17998,7 @@
         <v>226.2000000000003</v>
       </c>
       <c r="K348" t="n">
-        <v>-1.935483870967709</v>
+        <v>3.030303030302795</v>
       </c>
       <c r="L348" t="n">
         <v>94.47</v>
@@ -18027,7 +18049,7 @@
         <v>227.0000000000003</v>
       </c>
       <c r="K349" t="n">
-        <v>-6.17283950617279</v>
+        <v>-23.07692307692268</v>
       </c>
       <c r="L349" t="n">
         <v>94.39999999999998</v>
@@ -18078,7 +18100,7 @@
         <v>227.5000000000003</v>
       </c>
       <c r="K350" t="n">
-        <v>5.555555555555479</v>
+        <v>-30.23255813953434</v>
       </c>
       <c r="L350" t="n">
         <v>94.25999999999998</v>
@@ -18129,7 +18151,7 @@
         <v>228.7000000000003</v>
       </c>
       <c r="K351" t="n">
-        <v>-2.255639097744318</v>
+        <v>-3.703703703703733</v>
       </c>
       <c r="L351" t="n">
         <v>94.24999999999997</v>
@@ -18180,7 +18202,7 @@
         <v>228.9000000000003</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>1.818181818181973</v>
       </c>
       <c r="L352" t="n">
         <v>94.24999999999999</v>
@@ -18231,7 +18253,7 @@
         <v>228.9000000000003</v>
       </c>
       <c r="K353" t="n">
-        <v>13.55932203389823</v>
+        <v>30.23255813953507</v>
       </c>
       <c r="L353" t="n">
         <v>94.25999999999999</v>
@@ -18282,7 +18304,7 @@
         <v>228.9000000000003</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>23.07692307692319</v>
       </c>
       <c r="L354" t="n">
         <v>94.39</v>
@@ -18333,7 +18355,7 @@
         <v>228.9000000000003</v>
       </c>
       <c r="K355" t="n">
-        <v>18.60465116279062</v>
+        <v>18.91891891891905</v>
       </c>
       <c r="L355" t="n">
         <v>94.47999999999999</v>
@@ -18384,7 +18406,7 @@
         <v>229.1000000000003</v>
       </c>
       <c r="K356" t="n">
-        <v>19.9999999999999</v>
+        <v>18.91891891891905</v>
       </c>
       <c r="L356" t="n">
         <v>94.53</v>
@@ -18435,7 +18457,7 @@
         <v>230.2000000000003</v>
       </c>
       <c r="K357" t="n">
-        <v>9.677419354838547</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L357" t="n">
         <v>94.48999999999998</v>
@@ -18486,7 +18508,7 @@
         <v>231.3000000000004</v>
       </c>
       <c r="K358" t="n">
-        <v>3.448275862068892</v>
+        <v>16.27906976744188</v>
       </c>
       <c r="L358" t="n">
         <v>94.47999999999999</v>
@@ -18537,7 +18559,7 @@
         <v>231.3000000000004</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>31.57894736842103</v>
       </c>
       <c r="L359" t="n">
         <v>94.55</v>
@@ -18588,7 +18610,7 @@
         <v>231.5000000000003</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>7.142857142857216</v>
       </c>
       <c r="L360" t="n">
         <v>94.69000000000001</v>
@@ -18639,7 +18661,7 @@
         <v>232.6000000000004</v>
       </c>
       <c r="K361" t="n">
-        <v>-10.63829787234032</v>
+        <v>-29.72972972972959</v>
       </c>
       <c r="L361" t="n">
         <v>94.59999999999999</v>
@@ -18690,7 +18712,7 @@
         <v>233.5000000000004</v>
       </c>
       <c r="K362" t="n">
-        <v>-1.960784313725504</v>
+        <v>-4.347826086956536</v>
       </c>
       <c r="L362" t="n">
         <v>94.58000000000001</v>
@@ -18741,7 +18763,7 @@
         <v>236.4000000000004</v>
       </c>
       <c r="K363" t="n">
-        <v>-23.07692307692298</v>
+        <v>-41.33333333333313</v>
       </c>
       <c r="L363" t="n">
         <v>94.27000000000001</v>
@@ -18792,7 +18814,7 @@
         <v>238.6000000000004</v>
       </c>
       <c r="K364" t="n">
-        <v>2.857142857142886</v>
+        <v>-9.278350515463933</v>
       </c>
       <c r="L364" t="n">
         <v>94.18000000000004</v>
@@ -18843,7 +18865,7 @@
         <v>240.7000000000004</v>
       </c>
       <c r="K365" t="n">
-        <v>-13.37579617834387</v>
+        <v>-24.13793103448263</v>
       </c>
       <c r="L365" t="n">
         <v>93.88000000000002</v>
@@ -18894,7 +18916,7 @@
         <v>240.9000000000004</v>
       </c>
       <c r="K366" t="n">
-        <v>-15.92356687898085</v>
+        <v>-17.75700934579424</v>
       </c>
       <c r="L366" t="n">
         <v>93.58000000000001</v>
@@ -18945,7 +18967,7 @@
         <v>242.9000000000004</v>
       </c>
       <c r="K367" t="n">
-        <v>-1.714285714285692</v>
+        <v>-8.620689655172397</v>
       </c>
       <c r="L367" t="n">
         <v>93.59000000000002</v>
@@ -18996,7 +19018,7 @@
         <v>244.7000000000004</v>
       </c>
       <c r="K368" t="n">
-        <v>-15.67567567567558</v>
+        <v>-20.89552238805963</v>
       </c>
       <c r="L368" t="n">
         <v>93.31000000000002</v>
@@ -19047,7 +19069,7 @@
         <v>244.8000000000004</v>
       </c>
       <c r="K369" t="n">
-        <v>-11.23595505617975</v>
+        <v>-21.80451127819547</v>
       </c>
       <c r="L369" t="n">
         <v>93.04000000000001</v>
@@ -19098,7 +19120,7 @@
         <v>244.9000000000004</v>
       </c>
       <c r="K370" t="n">
-        <v>-9.195402298850524</v>
+        <v>-15.44715447154463</v>
       </c>
       <c r="L370" t="n">
         <v>92.74000000000001</v>
@@ -19149,7 +19171,7 @@
         <v>245.0000000000004</v>
       </c>
       <c r="K371" t="n">
-        <v>-16.56441717791409</v>
+        <v>-23.47826086956524</v>
       </c>
       <c r="L371" t="n">
         <v>92.56000000000002</v>
@@ -19200,7 +19222,7 @@
         <v>245.7000000000004</v>
       </c>
       <c r="K372" t="n">
-        <v>-21.42857142857139</v>
+        <v>-5.376344086021499</v>
       </c>
       <c r="L372" t="n">
         <v>92.22</v>
@@ -19251,7 +19273,7 @@
         <v>247.4000000000004</v>
       </c>
       <c r="K373" t="n">
-        <v>-10.27027027027027</v>
+        <v>-11.36363636363635</v>
       </c>
       <c r="L373" t="n">
         <v>92.34</v>
@@ -19302,7 +19324,7 @@
         <v>249.0000000000004</v>
       </c>
       <c r="K374" t="n">
-        <v>-17.41293532338304</v>
+        <v>-6.02409638554216</v>
       </c>
       <c r="L374" t="n">
         <v>92.08000000000001</v>
@@ -19353,7 +19375,7 @@
         <v>250.4000000000004</v>
       </c>
       <c r="K375" t="n">
-        <v>-9.76744186046513</v>
+        <v>11.57894736842099</v>
       </c>
       <c r="L375" t="n">
         <v>92.17</v>
@@ -19404,7 +19426,7 @@
         <v>251.9000000000004</v>
       </c>
       <c r="K376" t="n">
-        <v>-14.91228070175437</v>
+        <v>-26.66666666666673</v>
       </c>
       <c r="L376" t="n">
         <v>92.13</v>
@@ -19455,7 +19477,7 @@
         <v>253.0000000000004</v>
       </c>
       <c r="K377" t="n">
-        <v>-5.263157894736777</v>
+        <v>6.02409638554216</v>
       </c>
       <c r="L377" t="n">
         <v>91.99999999999999</v>
@@ -19506,7 +19528,7 @@
         <v>253.0000000000004</v>
       </c>
       <c r="K378" t="n">
-        <v>-10.59907834101379</v>
+        <v>4.878048780487864</v>
       </c>
       <c r="L378" t="n">
         <v>92.04999999999998</v>
@@ -19557,7 +19579,7 @@
         <v>253.1000000000004</v>
       </c>
       <c r="K379" t="n">
-        <v>-11.0091743119266</v>
+        <v>4.878048780487674</v>
       </c>
       <c r="L379" t="n">
         <v>92.07999999999998</v>
@@ -19608,7 +19630,7 @@
         <v>253.1000000000004</v>
       </c>
       <c r="K380" t="n">
-        <v>-12.03703703703703</v>
+        <v>3.703703703703645</v>
       </c>
       <c r="L380" t="n">
         <v>92.11999999999998</v>
@@ -19659,7 +19681,7 @@
         <v>253.1000000000004</v>
       </c>
       <c r="K381" t="n">
-        <v>-7.317073170731687</v>
+        <v>13.51351351351345</v>
       </c>
       <c r="L381" t="n">
         <v>92.14999999999998</v>
@@ -19710,7 +19732,7 @@
         <v>253.4000000000004</v>
       </c>
       <c r="K382" t="n">
-        <v>-10.55276381909549</v>
+        <v>-6.666666666666698</v>
       </c>
       <c r="L382" t="n">
         <v>92.27999999999999</v>
@@ -19761,7 +19783,7 @@
         <v>253.4000000000004</v>
       </c>
       <c r="K383" t="n">
-        <v>4.705882352941144</v>
+        <v>27.27272727272663</v>
       </c>
       <c r="L383" t="n">
         <v>92.23999999999998</v>
@@ -19812,7 +19834,7 @@
         <v>253.4000000000004</v>
       </c>
       <c r="K384" t="n">
-        <v>-9.459459459459454</v>
+        <v>-6.666666666666635</v>
       </c>
       <c r="L384" t="n">
         <v>92.35999999999999</v>
@@ -19863,7 +19885,7 @@
         <v>255.7000000000004</v>
       </c>
       <c r="K385" t="n">
-        <v>-10.66666666666666</v>
+        <v>-26.31578947368374</v>
       </c>
       <c r="L385" t="n">
         <v>92.10999999999999</v>
@@ -19914,7 +19936,7 @@
         <v>256.6000000000005</v>
       </c>
       <c r="K386" t="n">
-        <v>-3.184713375796158</v>
+        <v>-33.33333333333267</v>
       </c>
       <c r="L386" t="n">
         <v>92.09999999999999</v>
@@ -19965,7 +19987,7 @@
         <v>256.6000000000005</v>
       </c>
       <c r="K387" t="n">
-        <v>-18.24817518248162</v>
+        <v>-33.33333333333267</v>
       </c>
       <c r="L387" t="n">
         <v>91.98</v>
@@ -20016,7 +20038,7 @@
         <v>256.6000000000005</v>
       </c>
       <c r="K388" t="n">
-        <v>-5.88235294117645</v>
+        <v>-31.42857142857076</v>
       </c>
       <c r="L388" t="n">
         <v>91.86000000000001</v>
@@ -20067,7 +20089,7 @@
         <v>258.3000000000005</v>
       </c>
       <c r="K389" t="n">
-        <v>-18.5185185185184</v>
+        <v>-53.84615384615332</v>
       </c>
       <c r="L389" t="n">
         <v>91.58000000000001</v>
@@ -20118,7 +20140,7 @@
         <v>260.0000000000005</v>
       </c>
       <c r="K390" t="n">
-        <v>-4.635761589403968</v>
+        <v>-15.94202898550708</v>
       </c>
       <c r="L390" t="n">
         <v>91.47000000000003</v>
@@ -20169,7 +20191,7 @@
         <v>261.7000000000004</v>
       </c>
       <c r="K391" t="n">
-        <v>-14.97005988023946</v>
+        <v>-37.34939759036133</v>
       </c>
       <c r="L391" t="n">
         <v>91.19000000000003</v>
@@ -20220,7 +20242,7 @@
         <v>263.4000000000004</v>
       </c>
       <c r="K392" t="n">
-        <v>-0.5649717514123959</v>
+        <v>-13.99999999999991</v>
       </c>
       <c r="L392" t="n">
         <v>91.05000000000004</v>
@@ -20271,7 +20293,7 @@
         <v>263.4000000000004</v>
       </c>
       <c r="K393" t="n">
-        <v>-11.24999999999994</v>
+        <v>-13.99999999999991</v>
       </c>
       <c r="L393" t="n">
         <v>90.91000000000004</v>
@@ -20322,7 +20344,7 @@
         <v>265.1000000000004</v>
       </c>
       <c r="K394" t="n">
-        <v>-11.80124223602484</v>
+        <v>-8.51063829787233</v>
       </c>
       <c r="L394" t="n">
         <v>90.60000000000004</v>
@@ -20373,7 +20395,7 @@
         <v>266.8000000000004</v>
       </c>
       <c r="K395" t="n">
-        <v>-9.756097560975554</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>90.69000000000004</v>
@@ -20424,7 +20446,7 @@
         <v>266.8000000000004</v>
       </c>
       <c r="K396" t="n">
-        <v>-0.6711409395972758</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>90.69000000000004</v>
@@ -20475,7 +20497,7 @@
         <v>266.8000000000004</v>
       </c>
       <c r="K397" t="n">
-        <v>-8.695652173913057</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>90.69000000000004</v>
@@ -20526,7 +20548,7 @@
         <v>266.8000000000004</v>
       </c>
       <c r="K398" t="n">
-        <v>-8.695652173913057</v>
+        <v>20.00000000000017</v>
       </c>
       <c r="L398" t="n">
         <v>90.69000000000004</v>
@@ -20577,7 +20599,7 @@
         <v>266.9000000000004</v>
       </c>
       <c r="K399" t="n">
-        <v>-8.695652173913057</v>
+        <v>-1.449275362318969</v>
       </c>
       <c r="L399" t="n">
         <v>90.85000000000005</v>
@@ -20628,7 +20650,7 @@
         <v>268.4000000000004</v>
       </c>
       <c r="K400" t="n">
-        <v>-17.64705882352942</v>
+        <v>1.492537313432754</v>
       </c>
       <c r="L400" t="n">
         <v>90.69000000000004</v>
@@ -20679,7 +20701,7 @@
         <v>270.0000000000005</v>
       </c>
       <c r="K401" t="n">
-        <v>-6.508875739644923</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>90.86000000000004</v>
@@ -20730,7 +20752,7 @@
         <v>271.6000000000005</v>
       </c>
       <c r="K402" t="n">
-        <v>-16.48351648351644</v>
+        <v>-19.51219512195122</v>
       </c>
       <c r="L402" t="n">
         <v>90.70000000000005</v>
@@ -20781,7 +20803,7 @@
         <v>273.2000000000005</v>
       </c>
       <c r="K403" t="n">
-        <v>-7.070707070707003</v>
+        <v>20.98765432098748</v>
       </c>
       <c r="L403" t="n">
         <v>90.70000000000005</v>
@@ -20832,7 +20854,7 @@
         <v>273.2000000000005</v>
       </c>
       <c r="K404" t="n">
-        <v>-7.070707070707003</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>90.87000000000005</v>
@@ -20883,7 +20905,7 @@
         <v>273.2000000000005</v>
       </c>
       <c r="K405" t="n">
-        <v>5.142857142857158</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>90.87000000000005</v>
@@ -20934,7 +20956,7 @@
         <v>273.3000000000005</v>
       </c>
       <c r="K406" t="n">
-        <v>-0.5988023952096302</v>
+        <v>-1.538461538461643</v>
       </c>
       <c r="L406" t="n">
         <v>90.86000000000004</v>
@@ -20985,7 +21007,7 @@
         <v>274.2000000000005</v>
       </c>
       <c r="K407" t="n">
-        <v>-5.681818181818175</v>
+        <v>-13.51351351351335</v>
       </c>
       <c r="L407" t="n">
         <v>90.76000000000005</v>
@@ -21036,7 +21058,7 @@
         <v>274.5000000000005</v>
       </c>
       <c r="K408" t="n">
-        <v>-7.262569832402205</v>
+        <v>-15.78947368421021</v>
       </c>
       <c r="L408" t="n">
         <v>90.63000000000004</v>
@@ -21087,7 +21109,7 @@
         <v>276.9000000000005</v>
       </c>
       <c r="K409" t="n">
-        <v>15.05376344086018</v>
+        <v>31.76470588235276</v>
       </c>
       <c r="L409" t="n">
         <v>90.75000000000003</v>
@@ -21138,7 +21160,7 @@
         <v>277.1000000000005</v>
       </c>
       <c r="K410" t="n">
-        <v>7.602339181286523</v>
+        <v>18.30985915492948</v>
       </c>
       <c r="L410" t="n">
         <v>91.04000000000003</v>
@@ -21189,7 +21211,7 @@
         <v>277.1000000000005</v>
       </c>
       <c r="K411" t="n">
-        <v>19.48051948051944</v>
+        <v>52.72727272727283</v>
       </c>
       <c r="L411" t="n">
         <v>91.17000000000003</v>
@@ -21240,7 +21262,7 @@
         <v>277.2000000000005</v>
       </c>
       <c r="K412" t="n">
-        <v>8.695652173913022</v>
+        <v>30.00000000000007</v>
       </c>
       <c r="L412" t="n">
         <v>91.45000000000002</v>
@@ -21291,7 +21313,7 @@
         <v>277.3000000000005</v>
       </c>
       <c r="K413" t="n">
-        <v>9.35251798561143</v>
+        <v>31.70731707317049</v>
       </c>
       <c r="L413" t="n">
         <v>91.58000000000001</v>
@@ -21342,7 +21364,7 @@
         <v>279.7000000000005</v>
       </c>
       <c r="K414" t="n">
-        <v>4.109589041095829</v>
+        <v>-16.92307692307705</v>
       </c>
       <c r="L414" t="n">
         <v>91.47000000000001</v>
@@ -21393,7 +21415,7 @@
         <v>282.1000000000005</v>
       </c>
       <c r="K415" t="n">
-        <v>8.496732026143734</v>
+        <v>15.90909090909106</v>
       </c>
       <c r="L415" t="n">
         <v>91.60000000000001</v>
@@ -21444,7 +21466,7 @@
         <v>282.1000000000005</v>
       </c>
       <c r="K416" t="n">
-        <v>8.496732026143734</v>
+        <v>29.11392405063296</v>
       </c>
       <c r="L416" t="n">
         <v>91.74000000000001</v>
@@ -21495,7 +21517,7 @@
         <v>282.1000000000005</v>
       </c>
       <c r="K417" t="n">
-        <v>8.496732026143734</v>
+        <v>34.21052631578955</v>
       </c>
       <c r="L417" t="n">
         <v>91.97</v>
@@ -21546,7 +21568,7 @@
         <v>282.1000000000005</v>
       </c>
       <c r="K418" t="n">
-        <v>8.496732026143734</v>
+        <v>3.846153846153909</v>
       </c>
       <c r="L418" t="n">
         <v>92.23</v>
@@ -21597,7 +21619,7 @@
         <v>284.3000000000005</v>
       </c>
       <c r="K419" t="n">
-        <v>-4.597701149425262</v>
+        <v>-30.55555555555564</v>
       </c>
       <c r="L419" t="n">
         <v>92.03</v>
@@ -21648,7 +21670,7 @@
         <v>284.3000000000005</v>
       </c>
       <c r="K420" t="n">
-        <v>4.402515723270449</v>
+        <v>-30.55555555555564</v>
       </c>
       <c r="L420" t="n">
         <v>91.81</v>
@@ -21699,7 +21721,7 @@
         <v>286.5000000000005</v>
       </c>
       <c r="K421" t="n">
-        <v>7.878787878787861</v>
+        <v>1.075268817204245</v>
       </c>
       <c r="L421" t="n">
         <v>91.81</v>
@@ -21750,7 +21772,7 @@
         <v>287.0000000000005</v>
       </c>
       <c r="K422" t="n">
-        <v>22.07792207792215</v>
+        <v>5.154639175257769</v>
       </c>
       <c r="L422" t="n">
         <v>91.87</v>
@@ -21801,7 +21823,7 @@
         <v>287.1000000000005</v>
       </c>
       <c r="K423" t="n">
-        <v>13.6690647482014</v>
+        <v>40.54054054054067</v>
       </c>
       <c r="L423" t="n">
         <v>91.93000000000001</v>
@@ -21852,7 +21874,7 @@
         <v>287.1000000000005</v>
       </c>
       <c r="K424" t="n">
-        <v>13.6690647482014</v>
+        <v>11.99999999999989</v>
       </c>
       <c r="L424" t="n">
         <v>92.23</v>
@@ -21903,7 +21925,7 @@
         <v>287.4000000000005</v>
       </c>
       <c r="K425" t="n">
-        <v>15.49295774647891</v>
+        <v>16.98113207547177</v>
       </c>
       <c r="L425" t="n">
         <v>92.32000000000001</v>
@@ -21954,7 +21976,7 @@
         <v>287.5000000000005</v>
       </c>
       <c r="K426" t="n">
-        <v>16.90140845070435</v>
+        <v>18.51851851851859</v>
       </c>
       <c r="L426" t="n">
         <v>92.42</v>
@@ -22005,7 +22027,7 @@
         <v>287.5000000000005</v>
       </c>
       <c r="K427" t="n">
-        <v>24.81203007518803</v>
+        <v>18.51851851851859</v>
       </c>
       <c r="L427" t="n">
         <v>92.52000000000001</v>
@@ -22056,7 +22078,7 @@
         <v>287.6000000000005</v>
       </c>
       <c r="K428" t="n">
-        <v>26.71755725190847</v>
+        <v>93.93939393939388</v>
       </c>
       <c r="L428" t="n">
         <v>92.61</v>
@@ -22107,7 +22129,7 @@
         <v>287.9000000000005</v>
       </c>
       <c r="K429" t="n">
-        <v>12.72727272727278</v>
+        <v>94.444444444444</v>
       </c>
       <c r="L429" t="n">
         <v>92.95000000000002</v>
@@ -22158,7 +22180,7 @@
         <v>288.1000000000005</v>
       </c>
       <c r="K430" t="n">
-        <v>12.72727272727278</v>
+        <v>87.49999999999912</v>
       </c>
       <c r="L430" t="n">
         <v>93.31000000000002</v>
@@ -22209,7 +22231,7 @@
         <v>288.2000000000005</v>
       </c>
       <c r="K431" t="n">
-        <v>13.51351351351349</v>
+        <v>83.33333333333017</v>
       </c>
       <c r="L431" t="n">
         <v>93.46000000000001</v>
@@ -22260,7 +22282,7 @@
         <v>288.8000000000005</v>
       </c>
       <c r="K432" t="n">
-        <v>8.620689655172397</v>
+        <v>17.64705882352961</v>
       </c>
       <c r="L432" t="n">
         <v>93.50000000000003</v>
@@ -22311,7 +22333,7 @@
         <v>289.4000000000005</v>
       </c>
       <c r="K433" t="n">
-        <v>12.39669421487601</v>
+        <v>39.13043478260778</v>
       </c>
       <c r="L433" t="n">
         <v>93.59000000000002</v>
@@ -22362,7 +22384,7 @@
         <v>292.0000000000006</v>
       </c>
       <c r="K434" t="n">
-        <v>10.56910569105694</v>
+        <v>-43.47826086956447</v>
       </c>
       <c r="L434" t="n">
         <v>93.42000000000002</v>
@@ -22413,7 +22435,7 @@
         <v>293.8000000000006</v>
       </c>
       <c r="K435" t="n">
-        <v>5.982905982905955</v>
+        <v>-4.761904761904622</v>
       </c>
       <c r="L435" t="n">
         <v>93.40000000000001</v>
@@ -22464,7 +22486,7 @@
         <v>295.3000000000006</v>
       </c>
       <c r="K436" t="n">
-        <v>-6.060606060605992</v>
+        <v>-23.07692307692267</v>
       </c>
       <c r="L436" t="n">
         <v>93.22</v>
@@ -22515,7 +22537,7 @@
         <v>296.1000000000006</v>
       </c>
       <c r="K437" t="n">
-        <v>0</v>
+        <v>-10.58823529411757</v>
       </c>
       <c r="L437" t="n">
         <v>93.12</v>
@@ -22566,7 +22588,7 @@
         <v>296.5000000000006</v>
       </c>
       <c r="K438" t="n">
-        <v>2.7777777777778</v>
+        <v>-9.302325581395229</v>
       </c>
       <c r="L438" t="n">
         <v>93.07000000000002</v>
@@ -22617,7 +22639,7 @@
         <v>298.1000000000006</v>
       </c>
       <c r="K439" t="n">
-        <v>7.246376811594136</v>
+        <v>-25.99999999999979</v>
       </c>
       <c r="L439" t="n">
         <v>92.83000000000001</v>
@@ -22668,7 +22690,7 @@
         <v>298.2000000000006</v>
       </c>
       <c r="K440" t="n">
-        <v>6.474820143884864</v>
+        <v>-27.99999999999965</v>
       </c>
       <c r="L440" t="n">
         <v>92.56000000000002</v>
@@ -22719,7 +22741,7 @@
         <v>299.7000000000006</v>
       </c>
       <c r="K441" t="n">
-        <v>1.515151515151518</v>
+        <v>-6.422018348623826</v>
       </c>
       <c r="L441" t="n">
         <v>92.43000000000002</v>
@@ -22770,7 +22792,7 @@
         <v>300.4000000000006</v>
       </c>
       <c r="K442" t="n">
-        <v>-7.462686567164097</v>
+        <v>-18.18181818181809</v>
       </c>
       <c r="L442" t="n">
         <v>92.29000000000002</v>
@@ -22821,7 +22843,7 @@
         <v>300.5000000000006</v>
       </c>
       <c r="K443" t="n">
-        <v>-8.955223880596868</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L443" t="n">
         <v>92.08000000000001</v>
@@ -22872,7 +22894,7 @@
         <v>300.6000000000006</v>
       </c>
       <c r="K444" t="n">
-        <v>-8.148148148148039</v>
+        <v>-17.64705882352942</v>
       </c>
       <c r="L444" t="n">
         <v>92.14000000000001</v>
@@ -22923,7 +22945,7 @@
         <v>300.7000000000006</v>
       </c>
       <c r="K445" t="n">
-        <v>-9.774436090225558</v>
+        <v>7.407407407407203</v>
       </c>
       <c r="L445" t="n">
         <v>92.03000000000002</v>
@@ -22974,7 +22996,7 @@
         <v>300.9000000000006</v>
       </c>
       <c r="K446" t="n">
-        <v>-11.94029850746251</v>
+        <v>-12.49999999999985</v>
       </c>
       <c r="L446" t="n">
         <v>92.05000000000001</v>
@@ -23025,7 +23047,7 @@
         <v>301.5000000000006</v>
       </c>
       <c r="K447" t="n">
-        <v>-7.142857142857084</v>
+        <v>-8.000000000000114</v>
       </c>
       <c r="L447" t="n">
         <v>92.05000000000001</v>
@@ -23076,7 +23098,7 @@
         <v>301.6000000000006</v>
       </c>
       <c r="K448" t="n">
-        <v>-7.142857142857084</v>
+        <v>31.42857142857167</v>
       </c>
       <c r="L448" t="n">
         <v>92.00000000000001</v>
@@ -23127,7 +23149,7 @@
         <v>301.6000000000006</v>
       </c>
       <c r="K449" t="n">
-        <v>-9.489051094890419</v>
+        <v>35.29411764705914</v>
       </c>
       <c r="L449" t="n">
         <v>92.11000000000001</v>
@@ -23178,7 +23200,7 @@
         <v>302.7000000000006</v>
       </c>
       <c r="K450" t="n">
-        <v>-2.739726027397273</v>
+        <v>26.66666666666657</v>
       </c>
       <c r="L450" t="n">
         <v>92.34</v>
@@ -23229,7 +23251,7 @@
         <v>303.4000000000006</v>
       </c>
       <c r="K451" t="n">
-        <v>-7.894736842105228</v>
+        <v>26.66666666666657</v>
       </c>
       <c r="L451" t="n">
         <v>92.34999999999999</v>
@@ -23280,7 +23302,7 @@
         <v>303.6000000000006</v>
       </c>
       <c r="K452" t="n">
-        <v>-5.405405405405457</v>
+        <v>22.58064516128979</v>
       </c>
       <c r="L452" t="n">
         <v>92.41</v>
@@ -23331,7 +23353,7 @@
         <v>304.5000000000006</v>
       </c>
       <c r="K453" t="n">
-        <v>-3.31125827814569</v>
+        <v>38.46153846153869</v>
       </c>
       <c r="L453" t="n">
         <v>92.57000000000001</v>
@@ -23382,7 +23404,7 @@
         <v>305.2000000000006</v>
       </c>
       <c r="K454" t="n">
-        <v>10.60606060606055</v>
+        <v>15.55555555555581</v>
       </c>
       <c r="L454" t="n">
         <v>92.65000000000001</v>
@@ -23433,7 +23455,7 @@
         <v>305.8000000000006</v>
       </c>
       <c r="K455" t="n">
-        <v>1.66666666666669</v>
+        <v>30.61224489795932</v>
       </c>
       <c r="L455" t="n">
         <v>92.78</v>
@@ -23484,7 +23506,7 @@
         <v>306.7000000000006</v>
       </c>
       <c r="K456" t="n">
-        <v>7.017543859649076</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>92.84</v>
@@ -23535,7 +23557,7 @@
         <v>306.9000000000006</v>
       </c>
       <c r="K457" t="n">
-        <v>1.851851851851876</v>
+        <v>5.6603773584905</v>
       </c>
       <c r="L457" t="n">
         <v>92.86</v>
@@ -23586,7 +23608,7 @@
         <v>307.0000000000006</v>
       </c>
       <c r="K458" t="n">
-        <v>-2.85714285714295</v>
+        <v>3.70370370370347</v>
       </c>
       <c r="L458" t="n">
         <v>92.88000000000001</v>
@@ -23637,7 +23659,7 @@
         <v>307.6000000000006</v>
       </c>
       <c r="K459" t="n">
-        <v>7.368421052631609</v>
+        <v>-30.61224489795932</v>
       </c>
       <c r="L459" t="n">
         <v>92.84</v>
@@ -23688,7 +23710,7 @@
         <v>307.7000000000006</v>
       </c>
       <c r="K460" t="n">
-        <v>7.368421052631609</v>
+        <v>-20.93023255813928</v>
       </c>
       <c r="L460" t="n">
         <v>92.68000000000001</v>

--- a/BackTest/2019-10-21 BackTest PST.xlsx
+++ b/BackTest/2019-10-21 BackTest PST.xlsx
@@ -2516,13 +2516,17 @@
         <v>91.94000000000003</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K61" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2551,14 +2555,22 @@
         <v>91.87000000000003</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K62" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2598,22 @@
         <v>91.77833333333336</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="K63" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2641,22 @@
         <v>91.80000000000003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2690,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +2731,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +2772,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +2813,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +2854,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +2895,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +2936,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +2977,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3018,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3059,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3012,8 +3100,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3141,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3117,8 +3223,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3152,8 +3264,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3305,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3222,8 +3346,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3387,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3428,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3469,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,8 +3510,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3397,8 +3551,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3467,8 +3633,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3674,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +3715,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3756,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +3797,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +3838,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3677,8 +3879,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3712,8 +3920,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3741,18 +3955,18 @@
         <v>89.84000000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -3782,15 +3996,15 @@
         <v>89.79333333333335</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,15 +4037,15 @@
         <v>89.74166666666669</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,15 +4078,15 @@
         <v>89.68333333333335</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,15 +4119,15 @@
         <v>89.64166666666668</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,15 +4160,15 @@
         <v>89.61500000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,15 +4201,15 @@
         <v>89.60166666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,15 +4242,15 @@
         <v>89.55333333333334</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,15 +4283,15 @@
         <v>89.53666666666668</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>90</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,7 +4330,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,7 +4371,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,7 +4412,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,7 +4453,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,7 +4494,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4311,7 +4535,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4350,7 +4576,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,7 +4617,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,7 +4658,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4467,7 +4699,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4506,7 +4740,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4545,7 +4781,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,7 +4822,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4623,7 +4863,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,7 +4904,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4701,7 +4945,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,15 +4980,15 @@
         <v>89.28</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4775,15 +5021,15 @@
         <v>89.25166666666668</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,15 +5062,15 @@
         <v>89.24499999999999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4857,15 +5103,15 @@
         <v>89.18166666666666</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4898,15 +5144,15 @@
         <v>89.16499999999999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4939,15 +5185,15 @@
         <v>89.13166666666666</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>89</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,7 +5232,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,7 +5273,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,7 +5314,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5097,15 +5349,15 @@
         <v>89.06833333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,15 +5390,15 @@
         <v>89.03833333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5179,15 +5431,15 @@
         <v>89.015</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,15 +5472,15 @@
         <v>88.96333333333332</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,15 +5513,15 @@
         <v>88.93333333333332</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,15 +5554,15 @@
         <v>88.90333333333332</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5343,15 +5595,15 @@
         <v>88.82166666666664</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,15 +5636,15 @@
         <v>88.77999999999997</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,15 +5677,15 @@
         <v>88.76333333333331</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,15 +5718,15 @@
         <v>88.75166666666664</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>88</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5507,15 +5759,15 @@
         <v>88.73999999999998</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5548,15 +5800,15 @@
         <v>88.70333333333332</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5589,15 +5841,15 @@
         <v>88.73333333333332</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5630,15 +5882,15 @@
         <v>88.74999999999999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5671,15 +5923,15 @@
         <v>88.71333333333332</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5712,15 +5964,15 @@
         <v>88.67999999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5753,15 +6005,15 @@
         <v>88.64999999999999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,15 +6046,15 @@
         <v>88.61333333333332</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5835,15 +6087,15 @@
         <v>88.65333333333332</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,15 +6128,15 @@
         <v>88.68666666666665</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>89</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5917,15 +6169,15 @@
         <v>88.71333333333332</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>89</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5958,15 +6210,15 @@
         <v>88.71833333333332</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>89</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5999,15 +6251,15 @@
         <v>88.71666666666665</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>89</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6040,15 +6292,15 @@
         <v>88.71666666666665</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>89</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6081,15 +6333,15 @@
         <v>88.72333333333331</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>89</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6122,15 +6374,15 @@
         <v>88.72999999999998</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>89</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,15 +6415,15 @@
         <v>88.73499999999997</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,15 +6456,15 @@
         <v>88.74499999999998</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,15 +6497,15 @@
         <v>88.76166666666664</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6286,15 +6538,15 @@
         <v>88.77499999999996</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6327,15 +6579,15 @@
         <v>88.78999999999996</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>89</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6368,15 +6620,15 @@
         <v>88.78999999999996</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>89</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6409,15 +6661,15 @@
         <v>88.77166666666663</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>89</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6450,15 +6702,15 @@
         <v>88.7583333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6491,15 +6743,15 @@
         <v>88.72666666666665</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6532,15 +6784,15 @@
         <v>88.69499999999998</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>88</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6573,15 +6825,15 @@
         <v>88.66333333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6614,15 +6866,15 @@
         <v>88.65166666666666</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6655,15 +6907,15 @@
         <v>88.62166666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6696,15 +6948,15 @@
         <v>88.60333333333334</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,15 +6989,15 @@
         <v>88.58833333333334</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6778,15 +7030,15 @@
         <v>88.57166666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,15 +7071,15 @@
         <v>88.55666666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6860,15 +7112,15 @@
         <v>88.56500000000001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6901,15 +7153,15 @@
         <v>88.61333333333336</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>93</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6942,15 +7194,15 @@
         <v>88.66000000000001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6989,7 +7241,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7028,7 +7282,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7067,7 +7323,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7106,7 +7364,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7145,7 +7405,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7184,7 +7446,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,7 +7487,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7262,7 +7528,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7301,7 +7569,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,7 +7610,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7379,7 +7651,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7418,7 +7692,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7457,7 +7733,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,7 +7774,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,7 +7815,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7574,7 +7856,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7613,7 +7897,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7652,7 +7938,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7691,7 +7979,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,7 +8020,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7769,7 +8061,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7808,7 +8102,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7847,7 +8143,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7886,7 +8184,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7925,7 +8225,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7964,7 +8266,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8003,7 +8307,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8042,7 +8348,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8081,7 +8389,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,7 +8430,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8159,7 +8471,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8198,7 +8512,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8237,7 +8553,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8276,7 +8594,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8315,7 +8635,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8354,7 +8676,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8393,7 +8717,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8432,7 +8758,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8471,7 +8799,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8510,7 +8840,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,7 +8881,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8588,7 +8922,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8627,7 +8963,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8666,7 +9004,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8705,7 +9045,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8744,7 +9086,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8783,7 +9127,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,7 +9168,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8861,7 +9209,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8900,7 +9250,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8939,7 +9291,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8978,7 +9332,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9017,7 +9373,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9056,7 +9414,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9095,7 +9455,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9134,7 +9496,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9173,7 +9537,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9212,7 +9578,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9251,7 +9619,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9290,7 +9660,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9329,7 +9701,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9368,13 +9742,17 @@
         <v>1</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>89.7</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1.088645484949833</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9402,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>

--- a/BackTest/2019-10-21 BackTest PST.xlsx
+++ b/BackTest/2019-10-21 BackTest PST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>35888.62218705012</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>35888.62218705012</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>79790.2342453125</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>79790.2342453125</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -5665,17 +5665,11 @@
         <v>-9336.727639217877</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>88.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5708,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5745,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5782,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5819,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5893,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5930,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5967,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6004,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6041,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6078,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6115,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6152,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6189,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6263,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6300,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6337,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6407,15 +6325,15 @@
         <v>-41551.60453921788</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J180" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6444,13 +6362,17 @@
         <v>-44948.08863921788</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="J181" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6481,10 +6403,14 @@
         <v>-44938.08863921788</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J182" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,10 +6444,14 @@
         <v>-37757.40583921788</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="J183" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,12 +6485,14 @@
         <v>-584.5272392178813</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>88.5</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6594,12 +6526,12 @@
         <v>475.4727607821187</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>89</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6633,12 +6565,12 @@
         <v>475.4727607821187</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,12 +6604,12 @@
         <v>-3449.012239217881</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,12 +6643,12 @@
         <v>-3439.012239217881</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>88</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6750,12 +6682,12 @@
         <v>-5463.175139217881</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6789,12 +6721,12 @@
         <v>-5429.175139217881</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,7 +6763,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6865,12 +6799,14 @@
         <v>-8074.939839217881</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,12 +6840,12 @@
         <v>-8074.939839217881</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6943,12 +6879,14 @@
         <v>-8074.939839217881</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,12 +6920,14 @@
         <v>-12000.32393921788</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7021,12 +6961,14 @@
         <v>-8449.89233921788</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7060,12 +7002,14 @@
         <v>-8449.89233921788</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>88</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,12 +7043,14 @@
         <v>-6571.88513921788</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>88</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7138,12 +7084,14 @@
         <v>-6571.88513921788</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>88.3</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7177,12 +7125,14 @@
         <v>-11880.53093921788</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>88.3</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,12 +7166,14 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>87.2</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7255,12 +7207,14 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>88.2</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7294,12 +7248,14 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>88.2</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7333,12 +7289,14 @@
         <v>-5327.527839217881</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>88.2</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,12 +7330,14 @@
         <v>-4156.40623921788</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,12 +7371,14 @@
         <v>-4482.085339217881</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>88.7</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7450,12 +7412,14 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>88.3</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7489,12 +7453,14 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>89</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,12 +7494,14 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>89</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7567,12 +7535,14 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>89</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7606,12 +7576,14 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>89</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,10 +7617,14 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>89</v>
+      </c>
+      <c r="J212" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,10 +7658,14 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>89</v>
+      </c>
+      <c r="J213" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7719,12 +7699,12 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>89</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7758,10 +7738,14 @@
         <v>-14376.87353921788</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>89</v>
+      </c>
+      <c r="J215" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7795,12 +7779,12 @@
         <v>-14376.87353921788</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7834,12 +7818,14 @@
         <v>-14360.88793921788</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>88.5</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7873,12 +7859,12 @@
         <v>-14360.88793921788</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7912,12 +7898,12 @@
         <v>-10810.69693921788</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7951,12 +7937,12 @@
         <v>-10810.69693921788</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>89</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7990,10 +7976,14 @@
         <v>-10053.93283921788</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>89</v>
+      </c>
+      <c r="J221" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8030,7 +8020,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8064,12 +8056,14 @@
         <v>-11047.54303921788</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>89.3</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,12 +8097,12 @@
         <v>-11454.18743921788</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,12 +8136,14 @@
         <v>-11454.18743921788</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>88</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,12 +8177,14 @@
         <v>-11444.18743921788</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>88</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8220,12 +8218,14 @@
         <v>-14644.18743921788</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>89.2</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,12 +8259,14 @@
         <v>-14333.07633921788</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8298,12 +8300,14 @@
         <v>-14280.05153921788</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>88.8</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,12 +8341,14 @@
         <v>-14303.01293921788</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,12 +8382,14 @@
         <v>-13755.45623921788</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>88.7</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,12 +8423,12 @@
         <v>3370.383760782117</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8454,12 +8462,12 @@
         <v>3391.384460782117</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>90</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8493,12 +8501,12 @@
         <v>-961.5408392178829</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8535,7 +8543,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8572,7 +8582,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8609,7 +8621,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,7 +8660,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8683,7 +8699,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8720,7 +8738,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,7 +8777,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8791,12 +8813,12 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,12 +8852,12 @@
         <v>-4770.117139217882</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,12 +8891,12 @@
         <v>-7080.117139217882</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,12 +8930,14 @@
         <v>-4615.645939217882</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,12 +8971,14 @@
         <v>-12042.92493921788</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>92.5</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,7 +9015,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9023,12 +9051,12 @@
         <v>-12056.27053921788</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,12 +9090,12 @@
         <v>-18399.00603921788</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>92</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9101,12 +9129,12 @@
         <v>-18399.00603921788</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9140,12 +9168,12 @@
         <v>-18413.17263921788</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9179,12 +9207,12 @@
         <v>-18427.30383921788</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9218,12 +9246,14 @@
         <v>-20298.12393921788</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>90.3</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9257,12 +9287,14 @@
         <v>-18988.58383921788</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>90</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9296,10 +9328,14 @@
         <v>-26067.20173921789</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="J255" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9333,12 +9369,14 @@
         <v>-26055.97953921789</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>90</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,12 +9410,12 @@
         <v>-27350.01033921789</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9411,12 +9449,14 @@
         <v>-27350.01033921789</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>90</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9450,12 +9490,14 @@
         <v>-25334.57383921789</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>90</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9489,12 +9531,12 @@
         <v>-24649.36633921789</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9531,7 +9573,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9568,7 +9612,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,7 +9651,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,7 +9690,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,7 +9729,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9716,7 +9768,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9753,7 +9807,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9790,7 +9846,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9827,7 +9885,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,7 +9924,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9901,7 +9963,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9938,7 +10002,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9975,7 +10041,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10012,7 +10080,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10049,7 +10119,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10086,7 +10158,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10123,7 +10197,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10160,7 +10236,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10197,7 +10275,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10234,7 +10314,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10271,7 +10353,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10308,7 +10392,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10345,7 +10431,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10382,7 +10470,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10419,7 +10509,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10456,7 +10548,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,7 +10587,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10530,7 +10626,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10567,7 +10665,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10604,7 +10704,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10641,7 +10743,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10678,7 +10782,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10715,7 +10821,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10752,7 +10860,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10786,10 +10896,12 @@
         <v>97973.1933607821</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10823,10 +10935,12 @@
         <v>87270.9949607821</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10860,10 +10974,12 @@
         <v>131104.2294607821</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10897,10 +11013,12 @@
         <v>84937.35146078211</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10937,7 +11055,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10971,10 +11091,12 @@
         <v>78922.12246078212</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11008,16 +11130,20 @@
         <v>76868.65246078212</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
       <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -11043,11 +11169,17 @@
         <v>76757.38706078212</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11079,8 +11211,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11112,8 +11250,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11145,8 +11289,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11178,8 +11328,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11211,8 +11367,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11241,11 +11403,17 @@
         <v>88542.40966078211</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11277,8 +11445,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11310,8 +11484,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11343,8 +11523,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11376,8 +11562,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11409,8 +11601,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11442,8 +11640,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11475,8 +11679,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11505,15 +11715,23 @@
         <v>93805.9106607821</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+        <v>1.124735935706085</v>
+      </c>
+      <c r="M316" t="n">
+        <v>1.116898148148148</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11604,7 +11822,7 @@
         <v>77048.3358006195</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11868,7 +12086,7 @@
         <v>93634.65796078212</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11901,7 +12119,7 @@
         <v>93634.65796078212</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11934,7 +12152,7 @@
         <v>89795.28856078212</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12132,7 +12350,7 @@
         <v>37853.95284411546</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12165,7 +12383,7 @@
         <v>37853.95284411546</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12198,7 +12416,7 @@
         <v>41464.34668365521</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12231,7 +12449,7 @@
         <v>39833.46398365521</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12264,7 +12482,7 @@
         <v>54636.82928365521</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12297,7 +12515,7 @@
         <v>70105.98424411546</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12330,7 +12548,7 @@
         <v>70094.98424411546</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12363,7 +12581,7 @@
         <v>70094.98424411546</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12396,7 +12614,7 @@
         <v>66143.38754411547</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12429,7 +12647,7 @@
         <v>54759.46454411546</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12462,7 +12680,7 @@
         <v>54769.46454411546</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12495,7 +12713,7 @@
         <v>54754.46454411546</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12528,7 +12746,7 @@
         <v>54754.46454411546</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12561,7 +12779,7 @@
         <v>54828.49304411546</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12594,7 +12812,7 @@
         <v>54798.29104411547</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12627,7 +12845,7 @@
         <v>54352.48294411547</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12660,7 +12878,7 @@
         <v>19571.52314411547</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12693,7 +12911,7 @@
         <v>17545.15454411547</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12726,7 +12944,7 @@
         <v>8382.206944115467</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -16125,11 +16343,17 @@
         <v>-102458.7427457899</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16158,11 +16382,17 @@
         <v>-102458.7427457899</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16191,11 +16421,17 @@
         <v>-102469.7427457899</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16224,11 +16460,17 @@
         <v>-104600.6017457899</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>91.09999999999999</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16257,11 +16499,17 @@
         <v>-104589.6017457899</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16294,7 +16542,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16323,11 +16575,17 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16356,11 +16614,17 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16393,7 +16657,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16426,7 +16694,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16459,7 +16731,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16492,7 +16768,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16521,11 +16801,17 @@
         <v>-118731.4458457899</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>89.90000000000001</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16558,7 +16844,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16591,7 +16881,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16624,7 +16918,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16657,7 +16955,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16690,7 +16992,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16723,7 +17029,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16756,7 +17066,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16789,7 +17103,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16822,7 +17140,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16851,7 +17173,7 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>92.5</v>
@@ -16859,7 +17181,7 @@
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L478" t="n">
@@ -16890,7 +17212,7 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>90.3</v>
@@ -16929,7 +17251,7 @@
         <v>-122913.0521457899</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>90.3</v>
@@ -16968,7 +17290,7 @@
         <v>-115928.5037457899</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>92.5</v>
@@ -17044,11 +17366,9 @@
         <v>-109252.2782457899</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>93.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -17268,11 +17588,9 @@
         <v>-88092.40154578991</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>93.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -17418,11 +17736,9 @@
         <v>-93969.55984578992</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -17457,11 +17773,9 @@
         <v>-93958.99554578992</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>91.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17496,11 +17810,9 @@
         <v>-94606.99554578992</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>93.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17572,11 +17884,9 @@
         <v>-91033.32654578993</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>92.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17611,11 +17921,9 @@
         <v>-92578.65144578993</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>92.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17650,11 +17958,9 @@
         <v>-94119.19194578993</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>91.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17689,11 +17995,9 @@
         <v>-94109.19114578994</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>91.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17728,11 +18032,9 @@
         <v>-94245.13204578994</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>92.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17804,11 +18106,9 @@
         <v>-95254.05804578995</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>91.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17843,11 +18143,9 @@
         <v>-95242.94694578995</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17882,11 +18180,9 @@
         <v>-95768.67424578995</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>92.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17921,7 +18217,7 @@
         <v>-95654.69634578995</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>91.90000000000001</v>
@@ -17960,11 +18256,9 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>92.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17999,7 +18293,7 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>92.40000000000001</v>
@@ -18016,6 +18310,6 @@
       <c r="M508" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest PST.xlsx
+++ b/BackTest/2019-10-21 BackTest PST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>35888.62218705012</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -6325,14 +6325,10 @@
         <v>-41551.60453921788</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J180" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6362,19 +6358,11 @@
         <v>-44948.08863921788</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J181" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6403,19 +6391,11 @@
         <v>-44938.08863921788</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J182" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6444,19 +6424,11 @@
         <v>-37757.40583921788</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J183" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6485,19 +6457,11 @@
         <v>-584.5272392178813</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6529,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6568,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6607,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6646,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6685,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6724,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6763,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6799,19 +6721,11 @@
         <v>-8074.939839217881</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="J192" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6843,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6879,19 +6787,11 @@
         <v>-8074.939839217881</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J194" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6920,19 +6820,11 @@
         <v>-12000.32393921788</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J195" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6961,19 +6853,11 @@
         <v>-8449.89233921788</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="J196" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7002,19 +6886,11 @@
         <v>-8449.89233921788</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>88</v>
-      </c>
-      <c r="J197" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7043,19 +6919,11 @@
         <v>-6571.88513921788</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>88</v>
-      </c>
-      <c r="J198" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7084,19 +6952,11 @@
         <v>-6571.88513921788</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="J199" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7125,19 +6985,11 @@
         <v>-11880.53093921788</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="J200" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7166,19 +7018,11 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="J201" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7207,19 +7051,11 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J202" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7248,19 +7084,11 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J203" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7289,19 +7117,11 @@
         <v>-5327.527839217881</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="J204" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7330,19 +7150,11 @@
         <v>-4156.40623921788</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J205" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7371,19 +7183,11 @@
         <v>-4482.085339217881</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="J206" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7412,19 +7216,11 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="J207" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7453,19 +7249,11 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>89</v>
-      </c>
-      <c r="J208" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7494,19 +7282,11 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>89</v>
-      </c>
-      <c r="J209" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7535,19 +7315,11 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>89</v>
-      </c>
-      <c r="J210" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7576,19 +7348,11 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>89</v>
-      </c>
-      <c r="J211" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7617,19 +7381,11 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>89</v>
-      </c>
-      <c r="J212" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7658,19 +7414,11 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>89</v>
-      </c>
-      <c r="J213" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7702,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7738,19 +7480,11 @@
         <v>-14376.87353921788</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>89</v>
-      </c>
-      <c r="J215" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7782,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7818,19 +7546,11 @@
         <v>-14360.88793921788</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="J217" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7862,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7901,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7940,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7976,19 +7678,11 @@
         <v>-10053.93283921788</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>89</v>
-      </c>
-      <c r="J221" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8020,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8056,19 +7744,11 @@
         <v>-11047.54303921788</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J223" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8100,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8136,19 +7810,11 @@
         <v>-11454.18743921788</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>88</v>
-      </c>
-      <c r="J225" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8177,19 +7843,11 @@
         <v>-11444.18743921788</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>88</v>
-      </c>
-      <c r="J226" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8218,19 +7876,11 @@
         <v>-14644.18743921788</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="J227" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8259,19 +7909,11 @@
         <v>-14333.07633921788</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="J228" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8300,19 +7942,11 @@
         <v>-14280.05153921788</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="J229" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8341,19 +7975,11 @@
         <v>-14303.01293921788</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="J230" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8382,19 +8008,11 @@
         <v>-13755.45623921788</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="J231" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8426,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8465,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8504,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8543,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8582,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8621,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8657,17 +8239,11 @@
         <v>-3232.247639217883</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8696,17 +8272,11 @@
         <v>-3835.247639217883</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8738,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8774,17 +8338,11 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8813,17 +8371,11 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8852,17 +8404,11 @@
         <v>-4770.117139217882</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8891,17 +8437,11 @@
         <v>-7080.117139217882</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8930,19 +8470,11 @@
         <v>-4615.645939217882</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="J245" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8971,19 +8503,11 @@
         <v>-12042.92493921788</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="J246" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9015,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9054,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9093,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9132,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9171,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9210,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9246,19 +8734,11 @@
         <v>-20298.12393921788</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="J253" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9287,19 +8767,11 @@
         <v>-18988.58383921788</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>90</v>
-      </c>
-      <c r="J254" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9328,19 +8800,11 @@
         <v>-26067.20173921789</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="J255" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9369,19 +8833,11 @@
         <v>-26055.97953921789</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>90</v>
-      </c>
-      <c r="J256" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9413,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9449,19 +8899,11 @@
         <v>-27350.01033921789</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>90</v>
-      </c>
-      <c r="J258" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9490,19 +8932,11 @@
         <v>-25334.57383921789</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>90</v>
-      </c>
-      <c r="J259" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9534,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9573,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9612,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9651,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9690,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9729,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9768,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9807,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9846,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9882,17 +9262,11 @@
         <v>-42986.29243921789</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9921,17 +9295,11 @@
         <v>-45644.32923921789</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9960,17 +9328,11 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9999,17 +9361,11 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10038,17 +9394,11 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10077,17 +9427,11 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10116,17 +9460,11 @@
         <v>-40686.98263921789</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10155,17 +9493,11 @@
         <v>-34930.39863921789</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10194,17 +9526,11 @@
         <v>-34930.39863921789</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10233,17 +9559,11 @@
         <v>-23402.43253921789</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10272,17 +9592,11 @@
         <v>-3674.935339217893</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10311,17 +9625,11 @@
         <v>-410.4528392178927</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10350,17 +9658,11 @@
         <v>25089.46376078211</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10389,17 +9691,11 @@
         <v>28123.07886078211</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10431,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10467,17 +9757,11 @@
         <v>24933.57336078211</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10506,17 +9790,11 @@
         <v>23943.57336078211</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10545,17 +9823,11 @@
         <v>29062.5902607821</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10587,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10626,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10665,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10704,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10743,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10782,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10821,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10860,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10899,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10938,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10977,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11016,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11055,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11094,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11133,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11172,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11211,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11250,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11289,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11328,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11367,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11406,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11445,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11484,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11523,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11562,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11601,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11640,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11679,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11715,23 +10813,15 @@
         <v>93805.9106607821</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
-        <v>1.124735935706085</v>
-      </c>
-      <c r="M316" t="n">
-        <v>1.116898148148148</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11822,7 +10912,7 @@
         <v>77048.3358006195</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12350,7 +11440,7 @@
         <v>37853.95284411546</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12383,7 +11473,7 @@
         <v>37853.95284411546</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12416,7 +11506,7 @@
         <v>41464.34668365521</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12449,7 +11539,7 @@
         <v>39833.46398365521</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12482,7 +11572,7 @@
         <v>54636.82928365521</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12515,7 +11605,7 @@
         <v>70105.98424411546</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12548,7 +11638,7 @@
         <v>70094.98424411546</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12581,7 +11671,7 @@
         <v>70094.98424411546</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12614,7 +11704,7 @@
         <v>66143.38754411547</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12647,7 +11737,7 @@
         <v>54759.46454411546</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12680,7 +11770,7 @@
         <v>54769.46454411546</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12713,7 +11803,7 @@
         <v>54754.46454411546</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12746,7 +11836,7 @@
         <v>54754.46454411546</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12779,7 +11869,7 @@
         <v>54828.49304411546</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12812,7 +11902,7 @@
         <v>54798.29104411547</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12845,7 +11935,7 @@
         <v>54352.48294411547</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12878,7 +11968,7 @@
         <v>19571.52314411547</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12911,7 +12001,7 @@
         <v>17545.15454411547</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12944,7 +12034,7 @@
         <v>8382.206944115467</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -15188,7 +14278,7 @@
         <v>-62204.96784578991</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16343,210 +15433,188 @@
         <v>-102458.7427457899</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
         <v>91.2</v>
       </c>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
+      <c r="C457" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="D457" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E457" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F457" t="n">
+        <v>20.0002</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-102458.7427457899</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C458" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D458" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E458" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F458" t="n">
+        <v>11</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-102469.7427457899</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="C459" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D459" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="E459" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F459" t="n">
+        <v>2130.859</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-104600.6017457899</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C460" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="D460" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E460" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F460" t="n">
+        <v>11</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-104589.6017457899</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="J460" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C461" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D461" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E461" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F461" t="n">
+        <v>3856.0701</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-108445.6718457899</v>
+      </c>
+      <c r="H461" t="n">
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="J461" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="K461" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="C457" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="D457" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="E457" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="F457" t="n">
-        <v>20.0002</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-102458.7427457899</v>
-      </c>
-      <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C458" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="D458" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="E458" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F458" t="n">
-        <v>11</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-102469.7427457899</v>
-      </c>
-      <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="C459" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="D459" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="E459" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F459" t="n">
-        <v>2130.859</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-104600.6017457899</v>
-      </c>
-      <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="C460" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="D460" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="E460" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="F460" t="n">
-        <v>11</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-104589.6017457899</v>
-      </c>
-      <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C461" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="D461" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="E461" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F461" t="n">
-        <v>3856.0701</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-108445.6718457899</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16580,7 +15648,9 @@
       <c r="I462" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16619,7 +15689,9 @@
       <c r="I463" t="n">
         <v>91.2</v>
       </c>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16653,10 +15725,14 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="J464" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16690,10 +15766,14 @@
         <v>-111444.6718457899</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="J465" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16730,7 +15810,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16764,10 +15846,14 @@
         <v>-119742.4458457899</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J467" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16806,7 +15892,9 @@
       <c r="I468" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16843,7 +15931,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16880,7 +15970,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16917,7 +16009,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16954,7 +16048,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16991,7 +16087,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17028,7 +16126,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17065,7 +16165,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17102,7 +16204,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17139,7 +16243,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17173,12 +16279,12 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="J478" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17212,12 +16318,12 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="J479" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17251,12 +16357,12 @@
         <v>-122913.0521457899</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="J480" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17290,12 +16396,12 @@
         <v>-115928.5037457899</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="J481" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17332,7 +16438,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17369,7 +16477,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17406,7 +16516,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17443,7 +16555,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17480,7 +16594,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17517,7 +16633,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17554,7 +16672,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17591,7 +16711,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17628,7 +16750,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17665,7 +16789,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17702,7 +16828,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17739,7 +16867,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17776,7 +16906,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17813,7 +16945,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17850,7 +16984,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17887,7 +17023,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17924,7 +17062,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17961,7 +17101,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17998,7 +17140,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18035,7 +17179,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18072,7 +17218,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18109,7 +17257,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18143,17 +17293,19 @@
         <v>-95242.94694578995</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L504" t="n">
-        <v>1</v>
+        <v>1.022901785714286</v>
       </c>
       <c r="M504" t="inlineStr"/>
     </row>
@@ -18180,15 +17332,11 @@
         <v>-95768.67424578995</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18217,17 +17365,11 @@
         <v>-95654.69634578995</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>91.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18256,15 +17398,11 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18293,23 +17431,17 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>92.40000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
       <c r="M508" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest PST.xlsx
+++ b/BackTest/2019-10-21 BackTest PST.xlsx
@@ -6358,11 +6358,17 @@
         <v>-44948.08863921788</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>87.3</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6397,17 @@
         <v>-44938.08863921788</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6436,17 @@
         <v>-37757.40583921788</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>88.40000000000001</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6479,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6516,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6553,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6590,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6627,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6664,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6701,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6738,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6775,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6812,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6849,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +6886,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +6923,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +6960,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +6997,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7034,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7071,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7108,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7145,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7182,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7219,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7256,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7293,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7330,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7367,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7404,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7441,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7478,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7515,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7552,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7589,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7626,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7663,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7700,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7737,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7774,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7811,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7848,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7885,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7922,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7959,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7996,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8033,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8070,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8107,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8144,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8181,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8218,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8255,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8292,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8329,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8366,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8403,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8440,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8473,15 @@
         <v>-3232.247639217883</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8510,15 @@
         <v>-3835.247639217883</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8551,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8584,15 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8621,15 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8658,15 @@
         <v>-4770.117139217882</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8695,15 @@
         <v>-7080.117139217882</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8736,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8773,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8810,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8847,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8884,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8921,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8958,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8995,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9032,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9069,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9106,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9143,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9180,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9217,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9254,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9291,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9328,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9365,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9402,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9439,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9476,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9513,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9550,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9587,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9620,15 @@
         <v>-42986.29243921789</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9657,15 @@
         <v>-45644.32923921789</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9694,15 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9731,15 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9768,15 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9805,15 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9842,15 @@
         <v>-40686.98263921789</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9879,15 @@
         <v>-34930.39863921789</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9916,15 @@
         <v>-34930.39863921789</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9953,15 @@
         <v>-23402.43253921789</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9990,15 @@
         <v>-3674.935339217893</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +10027,15 @@
         <v>-410.4528392178927</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10064,15 @@
         <v>25089.46376078211</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10101,15 @@
         <v>28123.07886078211</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10142,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10175,15 @@
         <v>24933.57336078211</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10212,15 @@
         <v>23943.57336078211</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10249,15 @@
         <v>29062.5902607821</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10290,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10327,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10364,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10401,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10438,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10475,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10512,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10549,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10586,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10623,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10660,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10697,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10734,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10771,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10808,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10845,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +10882,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10919,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10956,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10993,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11030,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11067,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11104,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11141,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11178,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11215,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11252,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,14 +11285,16 @@
         <v>84604.70066078211</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
@@ -10780,7 +11320,7 @@
         <v>84520.37616078211</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11353,7 @@
         <v>93805.9106607821</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11386,7 @@
         <v>91005.34156078211</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11419,7 @@
         <v>91300.57540061951</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11452,7 @@
         <v>77048.3358006195</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11485,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11518,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11551,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11584,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11617,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11650,7 @@
         <v>95092.45180061951</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11683,7 @@
         <v>95092.45180061951</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11716,7 @@
         <v>93634.65796078212</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11749,7 @@
         <v>93634.65796078212</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11782,7 @@
         <v>89795.28856078212</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11815,7 @@
         <v>70117.89716078213</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -14278,7 +14818,7 @@
         <v>-62204.96784578991</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15565,14 +16105,10 @@
         <v>-104589.6017457899</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="J460" t="n">
-        <v>89.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
@@ -15602,19 +16138,11 @@
         <v>-108445.6718457899</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="J461" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15643,19 +16171,11 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="J462" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15684,19 +16204,11 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="J463" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15731,13 +16243,9 @@
         <v>91.2</v>
       </c>
       <c r="J464" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>91.2</v>
+      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15766,17 +16274,15 @@
         <v>-111444.6718457899</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
         <v>91.2</v>
       </c>
-      <c r="J465" t="n">
-        <v>89.59999999999999</v>
-      </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L465" t="n">
@@ -15811,11 +16317,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L466" t="n">
@@ -15852,11 +16358,11 @@
         <v>90.2</v>
       </c>
       <c r="J467" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L467" t="n">
@@ -15893,7 +16399,7 @@
         <v>89.90000000000001</v>
       </c>
       <c r="J468" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -15928,11 +16434,13 @@
         <v>-118420.4458457899</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>92.3</v>
+      </c>
       <c r="J469" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -15971,7 +16479,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16010,7 +16518,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16049,7 +16557,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16088,7 +16596,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16123,11 +16631,13 @@
         <v>-121175.7599457899</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>90.09999999999999</v>
+      </c>
       <c r="J474" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16166,7 +16676,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16205,7 +16715,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16244,7 +16754,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16279,11 +16789,13 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>92.5</v>
+      </c>
       <c r="J478" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16318,11 +16830,13 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>90.3</v>
+      </c>
       <c r="J479" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16357,11 +16871,13 @@
         <v>-122913.0521457899</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>90.3</v>
+      </c>
       <c r="J480" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16396,11 +16912,13 @@
         <v>-115928.5037457899</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>92.5</v>
+      </c>
       <c r="J481" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16439,7 +16957,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16474,11 +16992,13 @@
         <v>-109252.2782457899</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>93.09999999999999</v>
+      </c>
       <c r="J483" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16517,7 +17037,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16556,7 +17076,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16595,7 +17115,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16634,7 +17154,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16673,7 +17193,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16708,11 +17228,13 @@
         <v>-88092.40154578991</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>93.7</v>
+      </c>
       <c r="J489" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16747,11 +17269,13 @@
         <v>-87927.60374578991</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>93.90000000000001</v>
+      </c>
       <c r="J490" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16786,11 +17310,13 @@
         <v>-92830.06344578991</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>94</v>
+      </c>
       <c r="J491" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -16825,11 +17351,13 @@
         <v>-88829.98874578992</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>93.40000000000001</v>
+      </c>
       <c r="J492" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -16864,11 +17392,13 @@
         <v>-93969.55984578992</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>94</v>
+      </c>
       <c r="J493" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -16903,11 +17433,13 @@
         <v>-93958.99554578992</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>91.40000000000001</v>
+      </c>
       <c r="J494" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -16942,11 +17474,13 @@
         <v>-94606.99554578992</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>93.2</v>
+      </c>
       <c r="J495" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -16981,11 +17515,13 @@
         <v>-91043.32744578992</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>91.7</v>
+      </c>
       <c r="J496" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17020,11 +17556,13 @@
         <v>-91033.32654578993</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>92.5</v>
+      </c>
       <c r="J497" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17059,11 +17597,13 @@
         <v>-92578.65144578993</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>92.90000000000001</v>
+      </c>
       <c r="J498" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17098,11 +17638,13 @@
         <v>-94119.19194578993</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>91.3</v>
+      </c>
       <c r="J499" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17137,11 +17679,13 @@
         <v>-94109.19114578994</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J500" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17176,11 +17720,13 @@
         <v>-94245.13204578994</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>92.7</v>
+      </c>
       <c r="J501" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17215,11 +17761,13 @@
         <v>-96267.86404578995</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>92</v>
+      </c>
       <c r="J502" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17254,11 +17802,13 @@
         <v>-95254.05804578995</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>91.90000000000001</v>
+      </c>
       <c r="J503" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17293,19 +17843,21 @@
         <v>-95242.94694578995</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>92</v>
+      </c>
       <c r="J504" t="n">
-        <v>89.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L504" t="n">
-        <v>1.022901785714286</v>
+        <v>1</v>
       </c>
       <c r="M504" t="inlineStr"/>
     </row>
@@ -17332,11 +17884,19 @@
         <v>-95768.67424578995</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="J505" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17365,11 +17925,19 @@
         <v>-95654.69634578995</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="J506" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17398,11 +17966,19 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="J507" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17431,11 +18007,19 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="J508" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
